--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B194D-D773-4CAC-A306-1719AEA42E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D480C8AD-30A6-45CD-A5BC-99E7B1474F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="60">
   <si>
     <t>resultsPro/g20-2</t>
   </si>
@@ -214,6 +214,12 @@
   <si>
     <t>Comparando el mejor de los globales (g20-2) con el mejor de los locales (lvar-2), vemos que rinden +- igual pero gana el global</t>
   </si>
+  <si>
+    <t>Wilcoxon</t>
+  </si>
+  <si>
+    <t>WILCOSON</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,24 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,19 +531,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,6 +558,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,77 +585,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -947,6 +903,46 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4180,10 +4176,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D17CE1-347F-419E-835D-97B7F59D05CF}">
-  <dimension ref="B3:N35"/>
+  <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,22 +4188,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="H3" s="28" t="s">
+      <c r="E3" s="39"/>
+      <c r="H3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -4297,7 +4293,7 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="5">
@@ -4337,7 +4333,7 @@
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5">
@@ -4377,7 +4373,7 @@
       <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="35" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="5">
@@ -4417,7 +4413,7 @@
       <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="5">
@@ -4457,7 +4453,7 @@
       <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5">
@@ -4497,7 +4493,7 @@
       <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5">
@@ -4537,7 +4533,7 @@
       <c r="F12" s="6">
         <v>8</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="5">
@@ -4577,7 +4573,7 @@
       <c r="F13" s="6">
         <v>9</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="5">
@@ -4596,10 +4592,10 @@
         <f>'lvar-2'!P13</f>
         <v>80.808122668876877</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="49"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -4621,7 +4617,7 @@
       <c r="F14" s="6">
         <v>10</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="5">
@@ -4640,8 +4636,8 @@
         <f>'lvar-2'!P14</f>
         <v>97.209302325581362</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -4663,7 +4659,7 @@
       <c r="F15" s="6">
         <v>11</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5">
@@ -4707,7 +4703,7 @@
       <c r="F16" s="6">
         <v>12</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="5">
@@ -4747,7 +4743,7 @@
       <c r="F17" s="6">
         <v>13</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="5">
@@ -4787,7 +4783,7 @@
       <c r="F18" s="6">
         <v>14</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="5">
@@ -4827,7 +4823,7 @@
       <c r="F19" s="6">
         <v>15</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="35" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="5">
@@ -4867,7 +4863,7 @@
       <c r="F20" s="6">
         <v>16</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="35" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="5">
@@ -4907,7 +4903,7 @@
       <c r="F21" s="6">
         <v>17</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="5">
@@ -4947,7 +4943,7 @@
       <c r="F22" s="6">
         <v>18</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="35" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="5">
@@ -4987,7 +4983,7 @@
       <c r="F23" s="6">
         <v>19</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="5">
@@ -5027,7 +5023,7 @@
       <c r="F24" s="6">
         <v>20</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="35" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="5">
@@ -5067,7 +5063,7 @@
       <c r="F25" s="6">
         <v>21</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="5">
@@ -5107,7 +5103,7 @@
       <c r="F26" s="6">
         <v>22</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="5">
@@ -5147,7 +5143,7 @@
       <c r="F27" s="6">
         <v>23</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="35" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="5">
@@ -5187,7 +5183,7 @@
       <c r="F28" s="6">
         <v>24</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="35" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="5">
@@ -5227,7 +5223,7 @@
       <c r="F29" s="6">
         <v>25</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="35" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="5">
@@ -5267,7 +5263,7 @@
       <c r="F30" s="6">
         <v>26</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="35" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="5">
@@ -5307,7 +5303,7 @@
       <c r="F31" s="6">
         <v>27</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="35" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="5">
@@ -5347,7 +5343,7 @@
       <c r="F32" s="6">
         <v>28</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5">
@@ -5387,7 +5383,7 @@
       <c r="F33" s="9">
         <v>29</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="36" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="8">
@@ -5424,10 +5420,10 @@
         <f t="shared" si="0"/>
         <v>80.690826112341171</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="15">
         <f>AVERAGE(H5:H33)</f>
         <v>88.576875201155545</v>
@@ -5445,33 +5441,51 @@
         <v>80.895361322878571</v>
       </c>
     </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="37">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="H37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="37">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="J37" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="B35 D35">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>MAX($B$35,$D$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35 E35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>MAX($C$35,$E$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 J35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>MAX($H$35,$J$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 K35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>MAX($I$35,$K$35)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5483,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,67 +5507,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7235,38 +7249,38 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7280,302 +7294,302 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 E4 G4 I4 K4 M4">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>MAX($C$4,$E$4,$G$4,$I$4,$K$4,$M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 E5 G5 I5 K5 M5">
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>MAX($C$5,$E$5,$G$5,$I$5,$K$5,$M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 E6 G6 I6 K6 M6">
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>MAX($C$6,$E$6,$G$6,$I$6,$K$6,$M$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 E7 G7 I7 K7 M7">
-    <cfRule type="cellIs" dxfId="68" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>MAX($C$7,$E$7,$G$7,$I$7,$K$7,$M$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 E8 G8 I8 K8 M8">
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>MAX($C$8,$E$8,$G$8,$I$8,$K$8,$M$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 E9 G9 I9 K9 M9">
-    <cfRule type="cellIs" dxfId="66" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>MAX($C$9,$E$9,$G$9,$I$9,$K$9,$M$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10 M10">
-    <cfRule type="cellIs" dxfId="65" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>MAX($C$10,$E$10,$G$10,$I$10,$K$10,$M$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11 G11 I11 K11 M11">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>MAX($C$11,$E$11,$G$11,$I$11,$K$11,$M$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12 G12 I12 K12 M12">
-    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>MAX($C$12,$E$12,$G$12,$I$12,$K$12,$M$12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13 E13 G13 I13 K13 M13">
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>MAX($C$13,$E$13,$G$13,$I$13,$K$13,$M$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 E14 G14 I14 K14 M14">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>MAX($C$14,$E$14,$G$14,$I$14,$K$14,$M$14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 E15 G15 I15 K15 M15">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>MAX($C$15,$E$15,$G$15,$I$15,$K$15,$M$15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 E16 G16 I16 K16 M16">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>MAX($C$16,$E$16,$G$16,$I$16,$K$16,$M$16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17 E17 G17 I17 K17 M17">
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>MAX($C$17,$E$17,$G$17,$I$17,$K$17,$M$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18 E18 G18 I18 K18 M18">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>MAX($C$18,$E$18,$G$18,$I$18,$K$18,$M$18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19 E19 G19 I19 K19 M19">
-    <cfRule type="cellIs" dxfId="56" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>MAX($C$19,$E$19,$G$19,$I$19,$K$19,$M$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20 E20 G20 I20 K20 M20">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>MAX($C$20,$E$20,$G$20,$I$20,$K$20,$M$20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21 K21 I21 G21 E21 C21">
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>MAX($C$21,$E$21,$G$21,$I$21,$K$21,$M$21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 K22 I22 G22 E22 C22">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>MAX($C$22,$E$22,$G$22,$I$22,$K$22,$M$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 E23 G23 I23 K23 M23">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>MAX($M$23,$K$23,$I$23,$G$23,$E$23,$C$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24 K24 I24 G24 E24 C24">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>MAX($C$24,$E$24,$G$24,$I$24,$K$24,$M$24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25 K25 I25 G25 E25 C25">
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>MAX($C$25,$E$25,$G$25,$I$25,$K$25,$M$25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26 E26 G26 I26 K26 M26">
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>MAX($C$26,$E$26,$G$26,$I$26,$K$26,$M$26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27 E27 G27 I27 K27 M27">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>MAX($M$27,$K$27,$I$27,$G$27,$E$27,$C$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28 E28 G28 I28 K28 M28">
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>MAX($M$28,$K$28,$I$28,$G$28,$E$28,$C$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29 E29 G29 I29 K29 M29">
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>MAX($M$29,$K$29,$I$29,$G$29,$E$29,$C$29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30 K30 I30 G30 E30 C30">
-    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>MAX($C$30,$E$30,$G$30,$I$30,$K$30,$M$30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31 K31 I31 G31 E31 C31">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>MAX($C$31,$E$31,$G$31,$I$31,$K$31,$M$31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32 K32 I32 G32 E32 C32">
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>MAX($C$32,$E$32,$G$32,$I$32,$K$32,$M$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34 K34 I34 G34 E34 C34">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>MAX($C$34,$E$34,$G$34,$I$34,$K$34,$M$34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 F4 H4 J4 L4 N4">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>MAX($D$4,$F$4,$H$4,$J$4,$L$4,$N$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>MAX($N$5,$L$5,$J$5,$H$5,$F$5,$D$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 L6 J6 H6 F6 D6">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>MAX($D$6,$F$6,$H$6,$J$6,$L$6,$N$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7 L7 J7 H7 F7 D7">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>MAX($D$7,$F$7,$H$7,$J$7,$L$7,$N$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 L8 J8 H8 F8 D8">
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>MAX($D$8,$F$8,$H$8,$J$8,$L$8,$N$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 L9 J9 H9 F9 D9">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>MAX($D$9,$F$9,$H$9,$J$9,$L$9,$N$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10 L10 J10 H10 F10 D10">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>MAX($D$10,$F$10,$H$10,$J$10,$L$10,$N$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11 L11 J11 H11 F11 D11">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>MAX($D$11,$F$11,$H$11,$J$11,$L$11,$N$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12 L12 J12 H12 F12 D12">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>MAX($D$12,$F$12,$H$12,$J$12,$L$12,$N$12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13 L13 J13 H13 F13 D13">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>MAX($D$13,$F$13,$H$13,$J$13,$L$13,$N$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14 L14 J14 H14 F14 D14">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>MAX($D$14,$F$14,$H$14,$J$14,$L$14,$N$14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>MAX($N$15,$L$15,$J$15,$H$15,$F$15,$D$15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16 L16 J16 H16 F16 D16">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>MAX($D$16,$F$16,$H$16,$J$16,$L$16,$N$16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17 L17 J17 H17 F17 D17">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>MAX($D$17,$F$17,$H$17,$J$17,$L$17,$N$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18 L18 J18 H18 F18 D18">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>MAX($D$18,$F$18,$H$18,$J$18,$L$18,$N$18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19 L19 J19 H19 F19 D19">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>MAX($D$19,$F$19,$H$19,$J$19,$L$19,$N$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20 L20 J20 H20 F20 D20">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>MAX($D$20,$F$20,$H$20,$J$20,$L$20,$N$20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>MAX($N$21,$L$21,$J$21,$H$21,$F$21,$D$21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22 F22 H22 J22 L22 N22">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>MAX($N$22,$L$22,$J$22,$H$22,$F$22,$D$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23 L23 J23 H23 F23 D23">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>MAX($D$23,$F$23,$H$23,$J$23,$L$23,$N$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24 L24 J24 H24 F24 D24">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>MAX($D$24,$F$24,$H$24,$J$24,$L$24,$N$24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25 L25 J25 H25 F25 D25">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>MAX($D$25,$F$25,$H$25,$J$25,$L$25,$N$25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26 L26 J26 H26 F26 D26">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>MAX($N$26,$L$26,$J$26,$H$26,$F$26,$D$26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 L27 J27 H27 F27 D27">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>MAX($D$27,$F$27,$H$27,$J$27,$L$27,$N$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28 L28 J28 H28 F28 D28">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>MAX($D$28,$F$28,$H$28,$J$28,$L$28,$N$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>MAX($N$29,$L$29,$J$29,$H$29,$F$29,$D$29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 F30 H30 J30 L30 N30">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>MAX($N$30,$L$30,$J$30,$H$30,$F$30,$D$30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31 F31 H31 J31 L31 N31">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>MAX($N$31,$L$31,$J$31,$H$31,$F$31,$D$31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32 L32 J32 H32 F32 D32">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>MAX($D$32,$F$32,$H$32,$J$32,$L$32,$N$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>MAX($N$34,$L$34,$J$34,$H$34,$F$34,$D$34)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7586,525 +7600,638 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041C8BC2-393A-4D94-BC91-058A9692495C}">
-  <dimension ref="C4:G33"/>
+  <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="I4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>5300</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>345</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="6">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="H6" s="17"/>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
         <v>297</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E7" s="6">
         <v>13</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+      <c r="H7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="60"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <v>336</v>
       </c>
-      <c r="F8" s="6">
+      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="H8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="61">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="60"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D9" s="5">
         <v>214</v>
       </c>
-      <c r="F9" s="6">
+      <c r="E9" s="6">
         <v>9</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+      <c r="H9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="61">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="60"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
         <v>306</v>
       </c>
-      <c r="F10" s="6">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="H10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="61">
+        <v>5.11E-2</v>
+      </c>
+      <c r="J10" s="61">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="K10" s="61">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="60"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
         <v>351</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="6">
         <v>33</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+      <c r="H11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0.2109</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.2205</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5">
         <v>150</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+      <c r="H12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="M12" s="9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
         <v>1902</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5">
+      <c r="D14" s="5">
         <v>215</v>
       </c>
-      <c r="F14" s="6">
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <v>547</v>
       </c>
-      <c r="F15" s="6">
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5">
+      <c r="D16" s="5">
         <v>1099</v>
       </c>
-      <c r="F16" s="6">
+      <c r="E16" s="6">
         <v>16</v>
       </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5">
+      <c r="D17" s="5">
         <v>5404</v>
       </c>
-      <c r="F17" s="6">
+      <c r="E17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="5">
+      <c r="D18" s="5">
         <v>768</v>
       </c>
-      <c r="F18" s="6">
+      <c r="E18" s="6">
         <v>8</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5">
+      <c r="D19" s="5">
         <v>740</v>
       </c>
-      <c r="F19" s="6">
+      <c r="E19" s="6">
         <v>20</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5">
         <v>643</v>
       </c>
-      <c r="F20" s="6">
+      <c r="E20" s="6">
         <v>36</v>
       </c>
-      <c r="G20" s="7">
+      <c r="F20" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5">
+      <c r="D21" s="5">
         <v>5800</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" s="6">
         <v>9</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5">
         <v>151</v>
       </c>
-      <c r="F22" s="6">
+      <c r="E22" s="6">
         <v>5</v>
       </c>
-      <c r="G22" s="7">
+      <c r="F22" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="5">
+      <c r="D23" s="5">
         <v>2201</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="5">
+      <c r="D24" s="5">
         <v>740</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" s="6">
         <v>20</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5">
+      <c r="D25" s="5">
         <v>846</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" s="6">
         <v>18</v>
       </c>
-      <c r="G25" s="7">
+      <c r="F25" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="5">
+      <c r="D26" s="5">
         <v>178</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" s="6">
         <v>13</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>23</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="5">
+      <c r="D27" s="5">
         <v>683</v>
       </c>
-      <c r="F27" s="6">
+      <c r="E27" s="6">
         <v>11</v>
       </c>
-      <c r="G27" s="7">
+      <c r="F27" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="5">
+      <c r="D28" s="5">
         <v>365</v>
       </c>
-      <c r="F28" s="6">
+      <c r="E28" s="6">
         <v>19</v>
       </c>
-      <c r="G28" s="7">
+      <c r="F28" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="5">
+      <c r="D29" s="5">
         <v>267</v>
       </c>
-      <c r="F29" s="6">
+      <c r="E29" s="6">
         <v>44</v>
       </c>
-      <c r="G29" s="7">
+      <c r="F29" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="5">
+      <c r="D30" s="5">
         <v>569</v>
       </c>
-      <c r="F30" s="6">
+      <c r="E30" s="6">
         <v>30</v>
       </c>
-      <c r="G30" s="7">
+      <c r="F30" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="5">
+      <c r="D31" s="5">
         <v>1484</v>
       </c>
-      <c r="F31" s="6">
+      <c r="E31" s="6">
         <v>8</v>
       </c>
-      <c r="G31" s="7">
+      <c r="F31" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="5">
+      <c r="D32" s="5">
         <v>1599</v>
       </c>
-      <c r="F32" s="6">
+      <c r="E32" s="6">
         <v>11</v>
       </c>
-      <c r="G32" s="7">
+      <c r="F32" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="8">
+      <c r="D33" s="8">
         <v>625</v>
       </c>
-      <c r="F33" s="9">
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="G33" s="10">
+      <c r="F33" s="10">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10901,21 +11028,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -12411,21 +12538,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -13921,21 +14048,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -15427,21 +15554,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -16933,21 +17060,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -18439,21 +18566,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -19936,10 +20063,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BB4B0-7DAF-4533-A185-05FEA29DE4AD}">
-  <dimension ref="A3:N35"/>
+  <dimension ref="A3:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19949,22 +20076,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="H3" s="28" t="s">
+      <c r="E3" s="39"/>
+      <c r="H3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -20054,7 +20181,7 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="5">
@@ -20094,7 +20221,7 @@
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5">
@@ -20134,7 +20261,7 @@
       <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="35" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="5">
@@ -20174,7 +20301,7 @@
       <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="5">
@@ -20214,7 +20341,7 @@
       <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5">
@@ -20254,7 +20381,7 @@
       <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5">
@@ -20294,7 +20421,7 @@
       <c r="F12" s="6">
         <v>8</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="5">
@@ -20334,7 +20461,7 @@
       <c r="F13" s="6">
         <v>9</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="5">
@@ -20353,10 +20480,10 @@
         <f>'gvar-2'!P13</f>
         <v>80.860892388451433</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="49"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -20378,7 +20505,7 @@
       <c r="F14" s="6">
         <v>10</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="5">
@@ -20397,8 +20524,8 @@
         <f>'gvar-2'!P14</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -20420,7 +20547,7 @@
       <c r="F15" s="6">
         <v>11</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5">
@@ -20464,7 +20591,7 @@
       <c r="F16" s="6">
         <v>12</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="5">
@@ -20504,7 +20631,7 @@
       <c r="F17" s="6">
         <v>13</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="5">
@@ -20544,7 +20671,7 @@
       <c r="F18" s="6">
         <v>14</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="5">
@@ -20584,7 +20711,7 @@
       <c r="F19" s="6">
         <v>15</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="35" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="5">
@@ -20624,7 +20751,7 @@
       <c r="F20" s="6">
         <v>16</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="35" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="5">
@@ -20664,7 +20791,7 @@
       <c r="F21" s="6">
         <v>17</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="5">
@@ -20704,7 +20831,7 @@
       <c r="F22" s="6">
         <v>18</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="35" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="5">
@@ -20744,7 +20871,7 @@
       <c r="F23" s="6">
         <v>19</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="5">
@@ -20784,7 +20911,7 @@
       <c r="F24" s="6">
         <v>20</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="35" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="5">
@@ -20824,7 +20951,7 @@
       <c r="F25" s="6">
         <v>21</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="5">
@@ -20864,7 +20991,7 @@
       <c r="F26" s="6">
         <v>22</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="5">
@@ -20904,7 +21031,7 @@
       <c r="F27" s="6">
         <v>23</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="35" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="5">
@@ -20944,7 +21071,7 @@
       <c r="F28" s="6">
         <v>24</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="35" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="5">
@@ -20984,7 +21111,7 @@
       <c r="F29" s="6">
         <v>25</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="35" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="5">
@@ -21024,7 +21151,7 @@
       <c r="F30" s="6">
         <v>26</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="35" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="5">
@@ -21064,7 +21191,7 @@
       <c r="F31" s="6">
         <v>27</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="35" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="5">
@@ -21104,7 +21231,7 @@
       <c r="F32" s="6">
         <v>28</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5">
@@ -21144,7 +21271,7 @@
       <c r="F33" s="9">
         <v>29</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="36" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="8">
@@ -21186,10 +21313,10 @@
         <f t="shared" si="0"/>
         <v>80.902465605922444</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="15">
         <f>AVERAGE(H5:H33)</f>
         <v>88.697024013966555</v>
@@ -21207,36 +21334,55 @@
         <v>80.89958560623127</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="37">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="H37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="J37" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B35 D35">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>MAX($B$35,$D$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35 E35">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>MAX($C$35,$E$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 J35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>MAX($H$35,$J$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 K35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>MAX($I$35,$K$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D480C8AD-30A6-45CD-A5BC-99E7B1474F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C37FC8-BECD-4B04-A122-63A6A6C229C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="840" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="60">
   <si>
     <t>resultsPro/g20-2</t>
   </si>
@@ -225,6 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,12 +528,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,12 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,9 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,10 +586,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4178,47 +4198,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D17CE1-347F-419E-835D-97B7F59D05CF}">
   <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="41"/>
+      <c r="H3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="21" t="s">
         <v>49</v>
@@ -4234,361 +4261,361 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="76">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57">
         <f>'l20-4'!H5</f>
         <v>86.764150943396203</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="58">
         <f>'l20-4'!P5</f>
         <v>85.886792452830164</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="59">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="60">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="57">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="63">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="58">
         <f>'lvar-2'!H5</f>
         <v>86.018867924528223</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="63">
         <f>'lvar-2'!P5</f>
         <v>85.452830188679201</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="77">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57">
         <f>'l20-4'!H6</f>
         <v>80.072463768115895</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="58">
         <f>'l20-4'!P6</f>
         <v>62.608695652173878</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="57">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="63">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="57">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="63">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="58">
         <f>'lvar-2'!H6</f>
         <v>80.362318840579675</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="63">
         <f>'lvar-2'!P6</f>
         <v>66.376811594202849</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="77">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57">
         <f>'l20-4'!H7</f>
         <v>88.888770698152612</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="58">
         <f>'l20-4'!P7</f>
         <v>58.248587570621439</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="57">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="63">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="57">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="63">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="58">
         <f>'lvar-2'!H7</f>
         <v>89.564230755593343</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="63">
         <f>'lvar-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="77">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57">
         <f>'l20-4'!H8</f>
         <v>92.187482661044186</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="58">
         <f>'l20-4'!P8</f>
         <v>81.848112379280025</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="57">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="63">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="57">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="63">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="58">
         <f>'lvar-2'!H8</f>
         <v>91.889807468234977</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="63">
         <f>'lvar-2'!P8</f>
         <v>80.943810359964857</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="77">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57">
         <f>'l20-4'!H9</f>
         <v>82.012103903168722</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="58">
         <f>'l20-4'!P9</f>
         <v>64.518272425249137</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="57">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="63">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="57">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="63">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="58">
         <f>'lvar-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="63">
         <f>'lvar-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="77">
+        <v>6</v>
+      </c>
+      <c r="C10" s="57">
         <f>'l20-4'!H10</f>
         <v>81.861826697892226</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="58">
         <f>'l20-4'!P10</f>
         <v>71.226864093072408</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="57">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="63">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="F10" s="6">
-        <v>6</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="57">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="63">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="58">
         <f>'lvar-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="63">
         <f>'lvar-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="77">
+        <v>7</v>
+      </c>
+      <c r="C11" s="57">
         <f>'l20-4'!H11</f>
         <v>98.647432638535818</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="58">
         <f>'l20-4'!P11</f>
         <v>88.88933601609655</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="57">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="63">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="F11" s="6">
-        <v>7</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="57">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="63">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="58">
         <f>'lvar-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="63">
         <f>'lvar-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="77">
+        <v>8</v>
+      </c>
+      <c r="C12" s="57">
         <f>'l20-4'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="58">
         <f>'l20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="57">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="63">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="F12" s="6">
-        <v>8</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="57">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="63">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="58">
         <f>'lvar-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="63">
         <f>'lvar-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="77">
+        <v>9</v>
+      </c>
+      <c r="C13" s="57">
         <f>'l20-4'!H13</f>
         <v>84.503080396136056</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="58">
         <f>'l20-4'!P13</f>
         <v>81.280978035640246</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="57">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="63">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="F13" s="6">
-        <v>9</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="57">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="63">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="58">
         <f>'lvar-2'!H13</f>
         <v>84.64768752143658</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="63">
         <f>'lvar-2'!P13</f>
         <v>80.808122668876877</v>
       </c>
@@ -4598,41 +4625,41 @@
       <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="B14" s="77">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57">
         <f>'l20-4'!H14</f>
         <v>99.186046511627893</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="58">
         <f>'l20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="57">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="63">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="57">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="63">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="58">
         <f>'lvar-2'!H14</f>
         <v>99.302325581395337</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="63">
         <f>'lvar-2'!P14</f>
         <v>97.209302325581362</v>
       </c>
@@ -4640,41 +4667,41 @@
       <c r="N14" s="45"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="B15" s="77">
+        <v>11</v>
+      </c>
+      <c r="C15" s="57">
         <f>'l20-4'!H15</f>
         <v>97.034043748244741</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="58">
         <f>'l20-4'!P15</f>
         <v>93.611342785654671</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="57">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="63">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="F15" s="6">
-        <v>11</v>
-      </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="57">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="63">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="58">
         <f>'lvar-2'!H15</f>
         <v>97.079705848701366</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="63">
         <f>'lvar-2'!P15</f>
         <v>94.336947456213451</v>
       </c>
@@ -4684,799 +4711,795 @@
       <c r="N15" s="47"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="B16" s="77">
+        <v>12</v>
+      </c>
+      <c r="C16" s="57">
         <f>'l20-4'!H16</f>
         <v>98.613636363636331</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="58">
         <f>'l20-4'!P16</f>
         <v>91.454545454545411</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="57">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="63">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="57">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="63">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="58">
         <f>'lvar-2'!H16</f>
         <v>98.613636363636317</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="63">
         <f>'lvar-2'!P16</f>
         <v>93.181818181818173</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="B17" s="77">
+        <v>13</v>
+      </c>
+      <c r="C17" s="57">
         <f>'l20-4'!H17</f>
         <v>83.507569712419581</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="58">
         <f>'l20-4'!P17</f>
         <v>81.365899201699321</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="57">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="63">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="F17" s="6">
-        <v>13</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="57">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="63">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="58">
         <f>'lvar-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="63">
         <f>'lvar-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="B18" s="77">
+        <v>14</v>
+      </c>
+      <c r="C18" s="57">
         <f>'l20-4'!H18</f>
         <v>83.789094568470077</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="58">
         <f>'l20-4'!P18</f>
         <v>75.124352771411566</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="57">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="63">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="F18" s="6">
-        <v>14</v>
-      </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="57">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="63">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="58">
         <f>'lvar-2'!H18</f>
         <v>83.658589550064832</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="63">
         <f>'lvar-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="B19" s="77">
+        <v>15</v>
+      </c>
+      <c r="C19" s="57">
         <f>'l20-4'!H19</f>
         <v>97.263513513513487</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="58">
         <f>'l20-4'!P19</f>
         <v>91.756756756756701</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="57">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="63">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="F19" s="6">
-        <v>15</v>
-      </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="57">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="63">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="58">
         <f>'lvar-2'!H19</f>
         <v>97.195945945945908</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="63">
         <f>'lvar-2'!P19</f>
         <v>90.675675675675635</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="77">
+        <v>16</v>
+      </c>
+      <c r="C20" s="57">
         <f>'l20-4'!H20</f>
         <v>85.497487816856136</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="58">
         <f>'l20-4'!P20</f>
         <v>79.934593023255772</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="57">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="63">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="F20" s="6">
-        <v>16</v>
-      </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="57">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="63">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="58">
         <f>'lvar-2'!H20</f>
         <v>86.352914510218667</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="63">
         <f>'lvar-2'!P20</f>
         <v>79.939437984496095</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="77">
+        <v>17</v>
+      </c>
+      <c r="C21" s="57">
         <f>'l20-4'!H21</f>
         <v>96.586206896551658</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="58">
         <f>'l20-4'!P21</f>
         <v>96.275862068965452</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="57">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="63">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="F21" s="6">
-        <v>17</v>
-      </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="57">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="63">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="58">
         <f>'lvar-2'!H21</f>
         <v>97.206896551724085</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="63">
         <f>'lvar-2'!P21</f>
         <v>97.011494252873504</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="B22" s="77">
+        <v>18</v>
+      </c>
+      <c r="C22" s="57">
         <f>'l20-4'!H22</f>
         <v>76.822314049586723</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="58">
         <f>'l20-4'!P22</f>
         <v>57.634408602150508</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="57">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="63">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="F22" s="6">
-        <v>18</v>
-      </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="57">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="63">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="58">
         <f>'lvar-2'!H22</f>
         <v>76.65564738292008</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="63">
         <f>'lvar-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="B23" s="77">
+        <v>19</v>
+      </c>
+      <c r="C23" s="57">
         <f>'l20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="58">
         <f>'l20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="57">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="63">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="F23" s="6">
-        <v>19</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="57">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="63">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="58">
         <f>'lvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="63">
         <f>'lvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="B24" s="77">
+        <v>20</v>
+      </c>
+      <c r="C24" s="57">
         <f>'l20-4'!H24</f>
         <v>97.668918918918877</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="58">
         <f>'l20-4'!P24</f>
         <v>89.999999999999943</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="57">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="63">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="F24" s="6">
-        <v>20</v>
-      </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="57">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="63">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="58">
         <f>'lvar-2'!H24</f>
         <v>97.939189189189165</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="63">
         <f>'lvar-2'!P24</f>
         <v>90.405405405405389</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
+      <c r="B25" s="77">
+        <v>21</v>
+      </c>
+      <c r="C25" s="57">
         <f>'l20-4'!H25</f>
         <v>80.200676496551907</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="58">
         <f>'l20-4'!P25</f>
         <v>68.563870518621613</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="57">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="63">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="F25" s="6">
-        <v>21</v>
-      </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="57">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="63">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="58">
         <f>'lvar-2'!H25</f>
         <v>82.239561937891622</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="63">
         <f>'lvar-2'!P25</f>
         <v>70.093978419770238</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+      <c r="B26" s="77">
+        <v>22</v>
+      </c>
+      <c r="C26" s="57">
         <f>'l20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="58">
         <f>'l20-4'!P26</f>
         <v>93.809523809523768</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="57">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="63">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="F26" s="6">
-        <v>22</v>
-      </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="57">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="63">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="58">
         <f>'lvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="63">
         <f>'lvar-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+      <c r="B27" s="77">
+        <v>23</v>
+      </c>
+      <c r="C27" s="57">
         <f>'l20-4'!H27</f>
         <v>98.609063088039278</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="58">
         <f>'l20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="57">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="63">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="F27" s="6">
-        <v>23</v>
-      </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="57">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="63">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="58">
         <f>'lvar-2'!H27</f>
         <v>98.792079340525376</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="63">
         <f>'lvar-2'!P27</f>
         <v>97.218763417775833</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
+      <c r="B28" s="77">
+        <v>24</v>
+      </c>
+      <c r="C28" s="57">
         <f>'l20-4'!H28</f>
         <v>88.835138425634256</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="58">
         <f>'l20-4'!P28</f>
         <v>69.674840072563342</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="57">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="63">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="F28" s="6">
-        <v>24</v>
-      </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="57">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="63">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="58">
         <f>'lvar-2'!H28</f>
         <v>88.7696842693842</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="63">
         <f>'lvar-2'!P28</f>
         <v>68.585955529135134</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
+      <c r="B29" s="77">
+        <v>25</v>
+      </c>
+      <c r="C29" s="57">
         <f>'l20-4'!H29</f>
         <v>92.884471940678296</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="58">
         <f>'l20-4'!P29</f>
         <v>79.021663172606537</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="57">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="63">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="F29" s="6">
-        <v>25</v>
-      </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="57">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="63">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="58">
         <f>'lvar-2'!H29</f>
         <v>93.258303716379245</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="63">
         <f>'lvar-2'!P29</f>
         <v>79.37805730258556</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+      <c r="B30" s="77">
+        <v>26</v>
+      </c>
+      <c r="C30" s="57">
         <f>'l20-4'!H30</f>
         <v>98.637844611528791</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="58">
         <f>'l20-4'!P30</f>
         <v>95.958702064896713</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="57">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="63">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="F30" s="6">
-        <v>26</v>
-      </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="57">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="63">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="58">
         <f>'lvar-2'!H30</f>
         <v>98.813668787352952</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="63">
         <f>'lvar-2'!P30</f>
         <v>95.955596956994185</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
+      <c r="B31" s="77">
+        <v>27</v>
+      </c>
+      <c r="C31" s="57">
         <f>'l20-4'!H31</f>
         <v>64.605930124042985</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="58">
         <f>'l20-4'!P31</f>
         <v>58.356310856310799</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="57">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="63">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="F31" s="6">
-        <v>27</v>
-      </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="57">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="63">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="58">
         <f>'lvar-2'!H31</f>
         <v>64.420815852997777</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="63">
         <f>'lvar-2'!P31</f>
         <v>57.681090181090141</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+      <c r="B32" s="77">
+        <v>28</v>
+      </c>
+      <c r="C32" s="57">
         <f>'l20-4'!H32</f>
         <v>65.447334343236889</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="58">
         <f>'l20-4'!P32</f>
         <v>60.471590909090843</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="57">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="63">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="F32" s="6">
-        <v>28</v>
-      </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="57">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="63">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="58">
         <f>'lvar-2'!H32</f>
         <v>66.338203674745856</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="63">
         <f>'lvar-2'!P32</f>
         <v>60.661637931034456</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="B33" s="78">
+        <v>29</v>
+      </c>
+      <c r="C33" s="65">
         <f>'l20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="C33" s="9">
+      <c r="D33" s="66">
         <f>'l20-4'!P33</f>
         <v>86.72</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="65">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="67">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="F33" s="9">
-        <v>29</v>
-      </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="65">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="67">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="66">
         <f>'lvar-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="67">
         <f>'lvar-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
-        <f>AVERAGE(B5:B33)</f>
+      <c r="C35" s="70">
+        <f>AVERAGE(C5:C33)</f>
         <v>88.62136593901613</v>
       </c>
-      <c r="C35" s="16">
-        <f t="shared" ref="C35:E35" si="0">AVERAGE(C5:C33)</f>
+      <c r="D35" s="73">
+        <f t="shared" ref="D35:F35" si="0">AVERAGE(D5:D33)</f>
         <v>80.362775576082171</v>
       </c>
-      <c r="D35" s="15">
+      <c r="E35" s="70">
         <f t="shared" si="0"/>
         <v>88.576875201155545</v>
       </c>
-      <c r="E35" s="18">
+      <c r="F35" s="74">
         <f t="shared" si="0"/>
         <v>80.690826112341171</v>
       </c>
-      <c r="F35" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="15">
+      <c r="G35" s="75"/>
+      <c r="H35" s="70">
         <f>AVERAGE(H5:H33)</f>
         <v>88.576875201155545</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="73">
         <f t="shared" ref="I35:K35" si="1">AVERAGE(I5:I33)</f>
         <v>80.690826112341171</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="70">
         <f t="shared" si="1"/>
         <v>88.763988913106189</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="74">
         <f t="shared" si="1"/>
         <v>80.895361322878571</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="37">
+      <c r="D37" s="39">
         <v>0.51639999999999997</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="E37" s="41"/>
       <c r="H37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="39">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="J37" s="39"/>
+      <c r="J37" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C37:D37"/>
+  <mergeCells count="8">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35 D35">
+  <conditionalFormatting sqref="C35 E35">
     <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
-      <formula>MAX($B$35,$D$35)</formula>
+      <formula>MAX($C$35,$E$35)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35 E35">
+  <conditionalFormatting sqref="D35 F35">
     <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
-      <formula>MAX($C$35,$E$35)</formula>
+      <formula>MAX($D$35,$F$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35 J35">
@@ -5498,39 +5521,51 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="37" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="56"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -5578,51 +5613,51 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="59">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="60">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="59">
         <f>'g20-4'!H5</f>
         <v>86.981132075471663</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="60">
         <f>'g20-4'!P5</f>
         <v>86.18867924528297</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="58">
         <f>'gvar-2'!H5</f>
         <v>86.433962264150907</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="58">
         <f>'gvar-2'!P5</f>
         <v>85.698113207547138</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="59">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="60">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="61">
         <f>'l20-4'!H5</f>
         <v>86.764150943396203</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="60">
         <f>'l20-4'!P5</f>
         <v>85.886792452830164</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="58">
         <f>'lvar-2'!H5</f>
         <v>86.018867924528223</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="63">
         <f>'lvar-2'!P5</f>
         <v>85.452830188679201</v>
       </c>
@@ -5634,51 +5669,51 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="57">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="63">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="57">
         <f>'g20-4'!H6</f>
         <v>79.420289855072411</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="63">
         <f>'g20-4'!P6</f>
         <v>66.086956521739083</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="58">
         <f>'gvar-2'!H6</f>
         <v>80.652173913043441</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="58">
         <f>'gvar-2'!P6</f>
         <v>64.637681159420239</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="57">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="63">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="58">
         <f>'l20-4'!H6</f>
         <v>80.072463768115895</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="63">
         <f>'l20-4'!P6</f>
         <v>62.608695652173878</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="58">
         <f>'lvar-2'!H6</f>
         <v>80.362318840579675</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="63">
         <f>'lvar-2'!P6</f>
         <v>66.376811594202849</v>
       </c>
@@ -5690,51 +5725,51 @@
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="57">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="63">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="57">
         <f>'g20-4'!H7</f>
         <v>89.899656064957568</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="63">
         <f>'g20-4'!P7</f>
         <v>56.892655367231626</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="58">
         <f>'gvar-2'!H7</f>
         <v>90.320887848810372</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="58">
         <f>'gvar-2'!P7</f>
         <v>56.214689265536698</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="57">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="63">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="58">
         <f>'l20-4'!H7</f>
         <v>88.888770698152612</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="63">
         <f>'l20-4'!P7</f>
         <v>58.248587570621439</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="58">
         <f>'lvar-2'!H7</f>
         <v>89.564230755593343</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="63">
         <f>'lvar-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
@@ -5746,51 +5781,51 @@
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="57">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="63">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="57">
         <f>'g20-4'!H8</f>
         <v>92.188037507629105</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="63">
         <f>'g20-4'!P8</f>
         <v>82.137840210711119</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="58">
         <f>'gvar-2'!H8</f>
         <v>92.336736392387436</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="58">
         <f>'gvar-2'!P8</f>
         <v>83.336259877085126</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="57">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="63">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="58">
         <f>'l20-4'!H8</f>
         <v>92.187482661044186</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="63">
         <f>'l20-4'!P8</f>
         <v>81.848112379280025</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="58">
         <f>'lvar-2'!H8</f>
         <v>91.889807468234977</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="63">
         <f>'lvar-2'!P8</f>
         <v>80.943810359964857</v>
       </c>
@@ -5802,51 +5837,51 @@
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="57">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="63">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="57">
         <f>'g20-4'!H9</f>
         <v>81.309669522643773</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="63">
         <f>'g20-4'!P9</f>
         <v>67.297895902547026</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="58">
         <f>'gvar-2'!H9</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="58">
         <f>'gvar-2'!P9</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="57">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="63">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="58">
         <f>'l20-4'!H9</f>
         <v>82.012103903168722</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="63">
         <f>'l20-4'!P9</f>
         <v>64.518272425249137</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="58">
         <f>'lvar-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="63">
         <f>'lvar-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
@@ -5858,51 +5893,51 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="57">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="63">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="57">
         <f>'g20-4'!H10</f>
         <v>81.20843091334892</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="63">
         <f>'g20-4'!P10</f>
         <v>74.494976203067139</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="58">
         <f>'gvar-2'!H10</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="58">
         <f>'gvar-2'!P10</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="57">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="63">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="58">
         <f>'l20-4'!H10</f>
         <v>81.861826697892226</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="63">
         <f>'l20-4'!P10</f>
         <v>71.226864093072408</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="58">
         <f>'lvar-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="63">
         <f>'lvar-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
@@ -5914,51 +5949,51 @@
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="57">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="63">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="57">
         <f>'g20-4'!H11</f>
         <v>98.860701576004047</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="63">
         <f>'g20-4'!P11</f>
         <v>88.893360160965742</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="58">
         <f>'gvar-2'!H11</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="58">
         <f>'gvar-2'!P11</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="57">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="63">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="58">
         <f>'l20-4'!H11</f>
         <v>98.647432638535818</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="63">
         <f>'l20-4'!P11</f>
         <v>88.88933601609655</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="58">
         <f>'lvar-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="63">
         <f>'lvar-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
@@ -5970,51 +6005,51 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="57">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="63">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="57">
         <f>'g20-4'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="63">
         <f>'g20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="58">
         <f>'gvar-2'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="58">
         <f>'gvar-2'!P12</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="57">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="63">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="58">
         <f>'l20-4'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="63">
         <f>'l20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="58">
         <f>'lvar-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="63">
         <f>'lvar-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
@@ -6026,51 +6061,51 @@
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="57">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="63">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="57">
         <f>'g20-4'!H13</f>
         <v>84.253348435093073</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="63">
         <f>'g20-4'!P13</f>
         <v>80.965050421328854</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="58">
         <f>'gvar-2'!H13</f>
         <v>84.621380394148986</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="58">
         <f>'gvar-2'!P13</f>
         <v>80.860892388451433</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="57">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="63">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="58">
         <f>'l20-4'!H13</f>
         <v>84.503080396136056</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="63">
         <f>'l20-4'!P13</f>
         <v>81.280978035640246</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="58">
         <f>'lvar-2'!H13</f>
         <v>84.64768752143658</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="63">
         <f>'lvar-2'!P13</f>
         <v>80.808122668876877</v>
       </c>
@@ -6082,51 +6117,51 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="57">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="63">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="57">
         <f>'g20-4'!H14</f>
         <v>99.186046511627879</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="63">
         <f>'g20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="58">
         <f>'gvar-2'!H14</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="58">
         <f>'gvar-2'!P14</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="57">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="63">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="58">
         <f>'l20-4'!H14</f>
         <v>99.186046511627893</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="63">
         <f>'l20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="58">
         <f>'lvar-2'!H14</f>
         <v>99.302325581395337</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="63">
         <f>'lvar-2'!P14</f>
         <v>97.209302325581362</v>
       </c>
@@ -6138,51 +6173,51 @@
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="57">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="63">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="57">
         <f>'g20-4'!H15</f>
         <v>97.079601834805089</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="63">
         <f>'g20-4'!P15</f>
         <v>93.97497914929103</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="58">
         <f>'gvar-2'!H15</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="58">
         <f>'gvar-2'!P15</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="57">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="63">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="58">
         <f>'l20-4'!H15</f>
         <v>97.034043748244741</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="63">
         <f>'l20-4'!P15</f>
         <v>93.611342785654671</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="58">
         <f>'lvar-2'!H15</f>
         <v>97.079705848701366</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="63">
         <f>'lvar-2'!P15</f>
         <v>94.336947456213451</v>
       </c>
@@ -6194,51 +6229,51 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="57">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="63">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="57">
         <f>'g20-4'!H16</f>
         <v>98.477272727272677</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="63">
         <f>'g20-4'!P16</f>
         <v>92.181818181818144</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="58">
         <f>'gvar-2'!H16</f>
         <v>98.636363636363598</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="58">
         <f>'gvar-2'!P16</f>
         <v>92.181818181818159</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="57">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="63">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="58">
         <f>'l20-4'!H16</f>
         <v>98.613636363636331</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="63">
         <f>'l20-4'!P16</f>
         <v>91.454545454545411</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="58">
         <f>'lvar-2'!H16</f>
         <v>98.613636363636317</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="63">
         <f>'lvar-2'!P16</f>
         <v>93.181818181818173</v>
       </c>
@@ -6250,51 +6285,51 @@
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="57">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="63">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="57">
         <f>'g20-4'!H17</f>
         <v>83.280935203843697</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="63">
         <f>'g20-4'!P17</f>
         <v>81.513482029670698</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="58">
         <f>'gvar-2'!H17</f>
         <v>84.238541433286144</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="58">
         <f>'gvar-2'!P17</f>
         <v>82.050279233905442</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="57">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="63">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="58">
         <f>'l20-4'!H17</f>
         <v>83.507569712419581</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="63">
         <f>'l20-4'!P17</f>
         <v>81.365899201699321</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="58">
         <f>'lvar-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="63">
         <f>'lvar-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
@@ -6306,51 +6341,51 @@
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="57">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="63">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="57">
         <f>'g20-4'!H18</f>
         <v>83.821297105479161</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="63">
         <f>'g20-4'!P18</f>
         <v>74.085391732450489</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="58">
         <f>'gvar-2'!H18</f>
         <v>83.821561928974319</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="58">
         <f>'gvar-2'!P18</f>
         <v>75.254222901281679</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="57">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="63">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="58">
         <f>'l20-4'!H18</f>
         <v>83.789094568470077</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="63">
         <f>'l20-4'!P18</f>
         <v>75.124352771411566</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="58">
         <f>'lvar-2'!H18</f>
         <v>83.658589550064832</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="63">
         <f>'lvar-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
@@ -6362,51 +6397,51 @@
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="57">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="63">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="57">
         <f>'g20-4'!H19</f>
         <v>97.094594594594568</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="63">
         <f>'g20-4'!P19</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="58">
         <f>'gvar-2'!H19</f>
         <v>97.533783783783747</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="58">
         <f>'gvar-2'!P19</f>
         <v>91.216216216216182</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="57">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="63">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="58">
         <f>'l20-4'!H19</f>
         <v>97.263513513513487</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="63">
         <f>'l20-4'!P19</f>
         <v>91.756756756756701</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="58">
         <f>'lvar-2'!H19</f>
         <v>97.195945945945908</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="63">
         <f>'lvar-2'!P19</f>
         <v>90.675675675675635</v>
       </c>
@@ -6418,51 +6453,51 @@
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="57">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="63">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="57">
         <f>'g20-4'!H20</f>
         <v>85.575459937289835</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="63">
         <f>'g20-4'!P20</f>
         <v>81.022286821705393</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="58">
         <f>'gvar-2'!H20</f>
         <v>86.275546824827117</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="58">
         <f>'gvar-2'!P20</f>
         <v>81.022286821705379</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="57">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="63">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="58">
         <f>'l20-4'!H20</f>
         <v>85.497487816856136</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="63">
         <f>'l20-4'!P20</f>
         <v>79.934593023255772</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="58">
         <f>'lvar-2'!H20</f>
         <v>86.352914510218667</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="63">
         <f>'lvar-2'!P20</f>
         <v>79.939437984496095</v>
       </c>
@@ -6474,51 +6509,51 @@
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="57">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="63">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="57">
         <f>'g20-4'!H21</f>
         <v>97.149425287356266</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="63">
         <f>'g20-4'!P21</f>
         <v>96.96551724137926</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="58">
         <f>'gvar-2'!H21</f>
         <v>97.390804597701091</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="58">
         <f>'gvar-2'!P21</f>
         <v>97.19540229885051</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="57">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="63">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="58">
         <f>'l20-4'!H21</f>
         <v>96.586206896551658</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="63">
         <f>'l20-4'!P21</f>
         <v>96.275862068965452</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="58">
         <f>'lvar-2'!H21</f>
         <v>97.206896551724085</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="63">
         <f>'lvar-2'!P21</f>
         <v>97.011494252873504</v>
       </c>
@@ -6530,51 +6565,51 @@
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="57">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="63">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="57">
         <f>'g20-4'!H22</f>
         <v>76.491735537190067</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="63">
         <f>'g20-4'!P22</f>
         <v>59.61290322580642</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="58">
         <f>'gvar-2'!H22</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="58">
         <f>'gvar-2'!P22</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="57">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="63">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="58">
         <f>'l20-4'!H22</f>
         <v>76.822314049586723</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="63">
         <f>'l20-4'!P22</f>
         <v>57.634408602150508</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="58">
         <f>'lvar-2'!H22</f>
         <v>76.65564738292008</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="63">
         <f>'lvar-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
@@ -6586,51 +6621,51 @@
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="57">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="63">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="57">
         <f>'g20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="63">
         <f>'g20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="58">
         <f>'gvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="58">
         <f>'gvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="57">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="63">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="58">
         <f>'l20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="63">
         <f>'l20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="58">
         <f>'lvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="63">
         <f>'lvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
@@ -6642,51 +6677,51 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="57">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="63">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="57">
         <f>'g20-4'!H24</f>
         <v>97.804054054054035</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="63">
         <f>'g20-4'!P24</f>
         <v>90.270270270270245</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="58">
         <f>'gvar-2'!H24</f>
         <v>97.736486486486484</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="58">
         <f>'gvar-2'!P24</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="57">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="63">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="58">
         <f>'l20-4'!H24</f>
         <v>97.668918918918877</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="63">
         <f>'l20-4'!P24</f>
         <v>89.999999999999943</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="58">
         <f>'lvar-2'!H24</f>
         <v>97.939189189189165</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="63">
         <f>'lvar-2'!P24</f>
         <v>90.405405405405389</v>
       </c>
@@ -6698,51 +6733,51 @@
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="57">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="63">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="57">
         <f>'g20-4'!H25</f>
         <v>80.407427477646735</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="63">
         <f>'g20-4'!P25</f>
         <v>69.26557605290634</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="58">
         <f>'gvar-2'!H25</f>
         <v>81.737477384562879</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="58">
         <f>'gvar-2'!P25</f>
         <v>68.796380090497721</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="57">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="63">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="58">
         <f>'l20-4'!H25</f>
         <v>80.200676496551907</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="63">
         <f>'l20-4'!P25</f>
         <v>68.563870518621613</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="58">
         <f>'lvar-2'!H25</f>
         <v>82.239561937891622</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="63">
         <f>'lvar-2'!P25</f>
         <v>70.093978419770238</v>
       </c>
@@ -6754,51 +6789,51 @@
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="57">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="63">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="57">
         <f>'g20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="63">
         <f>'g20-4'!P26</f>
         <v>96.047619047619008</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="58">
         <f>'gvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="58">
         <f>'gvar-2'!P26</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="57">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="63">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="58">
         <f>'l20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="63">
         <f>'l20-4'!P26</f>
         <v>93.809523809523768</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="58">
         <f>'lvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="63">
         <f>'lvar-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
@@ -6810,51 +6845,51 @@
       <c r="B26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="57">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="63">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="57">
         <f>'g20-4'!H27</f>
         <v>98.828642411823367</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="63">
         <f>'g20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="58">
         <f>'gvar-2'!H27</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="58">
         <f>'gvar-2'!P27</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="57">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="63">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="58">
         <f>'l20-4'!H27</f>
         <v>98.609063088039278</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="63">
         <f>'l20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="58">
         <f>'lvar-2'!H27</f>
         <v>98.792079340525376</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="63">
         <f>'lvar-2'!P27</f>
         <v>97.218763417775833</v>
       </c>
@@ -6866,51 +6901,51 @@
       <c r="B27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="57">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="63">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="57">
         <f>'g20-4'!H28</f>
         <v>89.109580132030686</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="63">
         <f>'g20-4'!P28</f>
         <v>69.697383858873309</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="58">
         <f>'gvar-2'!H28</f>
         <v>89.452044311611331</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="58">
         <f>'gvar-2'!P28</f>
         <v>68.045736320924405</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="57">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="63">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="58">
         <f>'l20-4'!H28</f>
         <v>88.835138425634256</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="63">
         <f>'l20-4'!P28</f>
         <v>69.674840072563342</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="58">
         <f>'lvar-2'!H28</f>
         <v>88.7696842693842</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="63">
         <f>'lvar-2'!P28</f>
         <v>68.585955529135134</v>
       </c>
@@ -6922,51 +6957,51 @@
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="57">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="63">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="57">
         <f>'g20-4'!H29</f>
         <v>93.352200429994241</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="63">
         <f>'g20-4'!P29</f>
         <v>78.637316561844813</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="58">
         <f>'gvar-2'!H29</f>
         <v>93.444780834539884</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="58">
         <f>'gvar-2'!P29</f>
         <v>76.373165618448581</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="57">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="63">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="58">
         <f>'l20-4'!H29</f>
         <v>92.884471940678296</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="63">
         <f>'l20-4'!P29</f>
         <v>79.021663172606537</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="58">
         <f>'lvar-2'!H29</f>
         <v>93.258303716379245</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="63">
         <f>'lvar-2'!P29</f>
         <v>79.37805730258556</v>
       </c>
@@ -6978,51 +7013,51 @@
       <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="57">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="63">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="57">
         <f>'g20-4'!H30</f>
         <v>98.593792172739498</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="63">
         <f>'g20-4'!P30</f>
         <v>96.660456450861631</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="58">
         <f>'gvar-2'!H30</f>
         <v>98.681897050318042</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="58">
         <f>'gvar-2'!P30</f>
         <v>96.483465300419169</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="57">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="63">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="58">
         <f>'l20-4'!H30</f>
         <v>98.637844611528791</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="63">
         <f>'l20-4'!P30</f>
         <v>95.958702064896713</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="58">
         <f>'lvar-2'!H30</f>
         <v>98.813668787352952</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="63">
         <f>'lvar-2'!P30</f>
         <v>95.955596956994185</v>
       </c>
@@ -7034,51 +7069,51 @@
       <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="57">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="63">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="57">
         <f>'g20-4'!H31</f>
         <v>64.218582908557607</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="63">
         <f>'g20-4'!P31</f>
         <v>58.490535990535932</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="58">
         <f>'gvar-2'!H31</f>
         <v>64.521755039867884</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="58">
         <f>'gvar-2'!P31</f>
         <v>58.693921193921142</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="57">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="63">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="58">
         <f>'l20-4'!H31</f>
         <v>64.605930124042985</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="63">
         <f>'l20-4'!P31</f>
         <v>58.356310856310799</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="58">
         <f>'lvar-2'!H31</f>
         <v>64.420815852997777</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="63">
         <f>'lvar-2'!P31</f>
         <v>57.681090181090141</v>
       </c>
@@ -7090,51 +7125,51 @@
       <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="57">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="63">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="57">
         <f>'g20-4'!H32</f>
         <v>65.91624315871772</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="63">
         <f>'g20-4'!P32</f>
         <v>60.9112460815047</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="58">
         <f>'gvar-2'!H32</f>
         <v>66.32266419077402</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="58">
         <f>'gvar-2'!P32</f>
         <v>60.599333855799365</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="57">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="63">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="58">
         <f>'l20-4'!H32</f>
         <v>65.447334343236889</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="63">
         <f>'l20-4'!P32</f>
         <v>60.471590909090843</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="58">
         <f>'lvar-2'!H32</f>
         <v>66.338203674745856</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="63">
         <f>'lvar-2'!P32</f>
         <v>60.661637931034456</v>
       </c>
@@ -7146,141 +7181,155 @@
       <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="65">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="67">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="65">
         <f>'g20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="67">
         <f>'g20-4'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="66">
         <f>'gvar-2'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="66">
         <f>'gvar-2'!P33</f>
         <v>88.16</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="65">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="67">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="66">
         <f>'l20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="67">
         <f>'l20-4'!P33</f>
         <v>86.72</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="66">
         <f>'lvar-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="67">
         <f>'lvar-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="73">
         <f>AVERAGE(C4:C32)</f>
         <v>88.697024013966555</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="73">
         <f t="shared" ref="D34:N34" si="0">AVERAGE(D4:D32)</f>
         <v>80.902465605922444</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="70">
         <f t="shared" si="0"/>
         <v>88.628775867726389</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="74">
         <f t="shared" si="0"/>
         <v>80.857700975286804</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="73">
         <f t="shared" si="0"/>
         <v>88.898946777576953</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="73">
         <f t="shared" si="0"/>
         <v>80.89958560623127</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="70">
         <f t="shared" si="0"/>
         <v>88.576875201155545</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="74">
         <f t="shared" si="0"/>
         <v>80.690826112341171</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="73">
         <f t="shared" si="0"/>
         <v>88.62136593901613</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="73">
         <f t="shared" si="0"/>
         <v>80.362775576082171</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="70">
         <f t="shared" si="0"/>
         <v>88.763988913106189</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="74">
         <f t="shared" si="0"/>
         <v>80.895361322878571</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="52"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="51"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="50"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7603,7 +7652,7 @@
   <dimension ref="B4:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,13 +7673,13 @@
       <c r="F4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -7704,12 +7753,12 @@
       <c r="H7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="60"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -7730,14 +7779,14 @@
       <c r="H8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="38">
         <v>0.79169999999999996</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="60"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -7758,16 +7807,16 @@
       <c r="H9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="38">
         <v>0.67659999999999998</v>
       </c>
       <c r="J9" s="6">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="60"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -7788,18 +7837,18 @@
       <c r="H10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="38">
         <v>5.11E-2</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="38">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="38">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="60"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -7820,7 +7869,7 @@
       <c r="H11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="38">
         <v>0.2109</v>
       </c>
       <c r="J11" s="6">
@@ -7832,8 +7881,8 @@
       <c r="L11" s="6">
         <v>0.51649999999999996</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -7869,7 +7918,7 @@
       <c r="M12" s="9">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="N12" s="59"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -11028,21 +11077,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="6"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -12538,21 +12587,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -14048,21 +14097,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -15554,21 +15603,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -17060,21 +17109,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -18566,21 +18615,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -20063,37 +20112,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BB4B0-7DAF-4533-A185-05FEA29DE4AD}">
-  <dimension ref="A3:N37"/>
+  <dimension ref="A3:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="E3" s="41"/>
+      <c r="G3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>49</v>
       </c>
@@ -20107,1260 +20163,1177 @@
         <v>50</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="57">
         <f>'g20-4'!H5</f>
         <v>86.981132075471663</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="58">
         <f>'g20-4'!P5</f>
         <v>86.18867924528297</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="59">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="60">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="57">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="I5" s="7">
+      <c r="H5" s="63">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="J5" s="6">
+      <c r="I5" s="58">
         <f>'gvar-2'!H5</f>
         <v>86.433962264150907</v>
       </c>
-      <c r="K5" s="7">
+      <c r="J5" s="63">
         <f>'gvar-2'!P5</f>
         <v>85.698113207547138</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="57">
         <f>'g20-4'!H6</f>
         <v>79.420289855072411</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="58">
         <f>'g20-4'!P6</f>
         <v>66.086956521739083</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="57">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="63">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="57">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="I6" s="7">
+      <c r="H6" s="63">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="J6" s="6">
+      <c r="I6" s="58">
         <f>'gvar-2'!H6</f>
         <v>80.652173913043441</v>
       </c>
-      <c r="K6" s="7">
+      <c r="J6" s="63">
         <f>'gvar-2'!P6</f>
         <v>64.637681159420239</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="57">
         <f>'g20-4'!H7</f>
         <v>89.899656064957568</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="58">
         <f>'g20-4'!P7</f>
         <v>56.892655367231626</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="57">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="63">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="57">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="I7" s="7">
+      <c r="H7" s="63">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="J7" s="6">
+      <c r="I7" s="58">
         <f>'gvar-2'!H7</f>
         <v>90.320887848810372</v>
       </c>
-      <c r="K7" s="7">
+      <c r="J7" s="63">
         <f>'gvar-2'!P7</f>
         <v>56.214689265536698</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="57">
         <f>'g20-4'!H8</f>
         <v>92.188037507629105</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="58">
         <f>'g20-4'!P8</f>
         <v>82.137840210711119</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="57">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="63">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="57">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="I8" s="7">
+      <c r="H8" s="63">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="J8" s="6">
+      <c r="I8" s="58">
         <f>'gvar-2'!H8</f>
         <v>92.336736392387436</v>
       </c>
-      <c r="K8" s="7">
+      <c r="J8" s="63">
         <f>'gvar-2'!P8</f>
         <v>83.336259877085126</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="57">
         <f>'g20-4'!H9</f>
         <v>81.309669522643773</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="58">
         <f>'g20-4'!P9</f>
         <v>67.297895902547026</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="57">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="63">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="57">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="I9" s="7">
+      <c r="H9" s="63">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="J9" s="6">
+      <c r="I9" s="58">
         <f>'gvar-2'!H9</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="K9" s="7">
+      <c r="J9" s="63">
         <f>'gvar-2'!P9</f>
         <v>69.158361018826099</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="57">
         <f>'g20-4'!H10</f>
         <v>81.20843091334892</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="58">
         <f>'g20-4'!P10</f>
         <v>74.494976203067139</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="57">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="63">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="F10" s="6">
-        <v>6</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="57">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="I10" s="7">
+      <c r="H10" s="63">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I10" s="58">
         <f>'gvar-2'!H10</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="K10" s="7">
+      <c r="J10" s="63">
         <f>'gvar-2'!P10</f>
         <v>71.549444738233689</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="57">
         <f>'g20-4'!H11</f>
         <v>98.860701576004047</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="58">
         <f>'g20-4'!P11</f>
         <v>88.893360160965742</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="57">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="63">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="F11" s="6">
-        <v>7</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="F11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G11" s="57">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="I11" s="7">
+      <c r="H11" s="63">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="J11" s="6">
+      <c r="I11" s="58">
         <f>'gvar-2'!H11</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="K11" s="7">
+      <c r="J11" s="63">
         <f>'gvar-2'!P11</f>
         <v>91.167002012072402</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="57">
         <f>'g20-4'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="58">
         <f>'g20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="57">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="63">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="F12" s="6">
-        <v>8</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="F12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="5">
+      <c r="G12" s="57">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="I12" s="7">
+      <c r="H12" s="63">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="J12" s="6">
+      <c r="I12" s="58">
         <f>'gvar-2'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="K12" s="7">
+      <c r="J12" s="63">
         <f>'gvar-2'!P12</f>
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="57">
         <f>'g20-4'!H13</f>
         <v>84.253348435093073</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="58">
         <f>'g20-4'!P13</f>
         <v>80.965050421328854</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="57">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="63">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="F13" s="6">
-        <v>9</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="F13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5">
+      <c r="G13" s="57">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="I13" s="7">
+      <c r="H13" s="63">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="J13" s="6">
+      <c r="I13" s="58">
         <f>'gvar-2'!H13</f>
         <v>84.621380394148986</v>
       </c>
-      <c r="K13" s="7">
+      <c r="J13" s="63">
         <f>'gvar-2'!P13</f>
         <v>80.860892388451433</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="L13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="57">
         <f>'g20-4'!H14</f>
         <v>99.186046511627879</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="58">
         <f>'g20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="57">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="63">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5">
+      <c r="G14" s="57">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="I14" s="7">
+      <c r="H14" s="63">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="J14" s="6">
+      <c r="I14" s="58">
         <f>'gvar-2'!H14</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="K14" s="7">
+      <c r="J14" s="63">
         <f>'gvar-2'!P14</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="57">
         <f>'g20-4'!H15</f>
         <v>97.079601834805089</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="58">
         <f>'g20-4'!P15</f>
         <v>93.97497914929103</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="57">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="63">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="F15" s="6">
-        <v>11</v>
-      </c>
-      <c r="G15" s="35" t="s">
+      <c r="F15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5">
+      <c r="G15" s="57">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="I15" s="7">
+      <c r="H15" s="63">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="J15" s="6">
+      <c r="I15" s="58">
         <f>'gvar-2'!H15</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="K15" s="7">
+      <c r="J15" s="63">
         <f>'gvar-2'!P15</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="L15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="47"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="57">
         <f>'g20-4'!H16</f>
         <v>98.477272727272677</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="58">
         <f>'g20-4'!P16</f>
         <v>92.181818181818144</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="57">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="63">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5">
+      <c r="G16" s="57">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="I16" s="7">
+      <c r="H16" s="63">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="J16" s="6">
+      <c r="I16" s="58">
         <f>'gvar-2'!H16</f>
         <v>98.636363636363598</v>
       </c>
-      <c r="K16" s="7">
+      <c r="J16" s="63">
         <f>'gvar-2'!P16</f>
         <v>92.181818181818159</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="57">
         <f>'g20-4'!H17</f>
         <v>83.280935203843697</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="58">
         <f>'g20-4'!P17</f>
         <v>81.513482029670698</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="57">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="63">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="F17" s="6">
-        <v>13</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="5">
+      <c r="G17" s="57">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="I17" s="7">
+      <c r="H17" s="63">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="J17" s="6">
+      <c r="I17" s="58">
         <f>'gvar-2'!H17</f>
         <v>84.238541433286144</v>
       </c>
-      <c r="K17" s="7">
+      <c r="J17" s="63">
         <f>'gvar-2'!P17</f>
         <v>82.050279233905442</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="57">
         <f>'g20-4'!H18</f>
         <v>83.821297105479161</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="58">
         <f>'g20-4'!P18</f>
         <v>74.085391732450489</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="57">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="63">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="F18" s="6">
-        <v>14</v>
-      </c>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="5">
+      <c r="G18" s="57">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="I18" s="7">
+      <c r="H18" s="63">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="J18" s="6">
+      <c r="I18" s="58">
         <f>'gvar-2'!H18</f>
         <v>83.821561928974319</v>
       </c>
-      <c r="K18" s="7">
+      <c r="J18" s="63">
         <f>'gvar-2'!P18</f>
         <v>75.254222901281679</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="57">
         <f>'g20-4'!H19</f>
         <v>97.094594594594568</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="58">
         <f>'g20-4'!P19</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="57">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="63">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="F19" s="6">
-        <v>15</v>
-      </c>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="5">
+      <c r="G19" s="57">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="I19" s="7">
+      <c r="H19" s="63">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="J19" s="6">
+      <c r="I19" s="58">
         <f>'gvar-2'!H19</f>
         <v>97.533783783783747</v>
       </c>
-      <c r="K19" s="7">
+      <c r="J19" s="63">
         <f>'gvar-2'!P19</f>
         <v>91.216216216216182</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="57">
         <f>'g20-4'!H20</f>
         <v>85.575459937289835</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="58">
         <f>'g20-4'!P20</f>
         <v>81.022286821705393</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="57">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="63">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="F20" s="6">
-        <v>16</v>
-      </c>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="5">
+      <c r="G20" s="57">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="I20" s="7">
+      <c r="H20" s="63">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="J20" s="6">
+      <c r="I20" s="58">
         <f>'gvar-2'!H20</f>
         <v>86.275546824827117</v>
       </c>
-      <c r="K20" s="7">
+      <c r="J20" s="63">
         <f>'gvar-2'!P20</f>
         <v>81.022286821705379</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="57">
         <f>'g20-4'!H21</f>
         <v>97.149425287356266</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="58">
         <f>'g20-4'!P21</f>
         <v>96.96551724137926</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="57">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="63">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="F21" s="6">
-        <v>17</v>
-      </c>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5">
+      <c r="G21" s="57">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="I21" s="7">
+      <c r="H21" s="63">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="J21" s="6">
+      <c r="I21" s="58">
         <f>'gvar-2'!H21</f>
         <v>97.390804597701091</v>
       </c>
-      <c r="K21" s="7">
+      <c r="J21" s="63">
         <f>'gvar-2'!P21</f>
         <v>97.19540229885051</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="57">
         <f>'g20-4'!H22</f>
         <v>76.491735537190067</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="58">
         <f>'g20-4'!P22</f>
         <v>59.61290322580642</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="57">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="63">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="F22" s="6">
-        <v>18</v>
-      </c>
-      <c r="G22" s="35" t="s">
+      <c r="F22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="5">
+      <c r="G22" s="57">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="I22" s="7">
+      <c r="H22" s="63">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="J22" s="6">
+      <c r="I22" s="58">
         <f>'gvar-2'!H22</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="K22" s="7">
+      <c r="J22" s="63">
         <f>'gvar-2'!P22</f>
         <v>59.612903225806392</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="57">
         <f>'g20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="58">
         <f>'g20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="57">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="63">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="F23" s="6">
-        <v>19</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="5">
+      <c r="G23" s="57">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="I23" s="7">
+      <c r="H23" s="63">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="J23" s="6">
+      <c r="I23" s="58">
         <f>'gvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="K23" s="7">
+      <c r="J23" s="63">
         <f>'gvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="57">
         <f>'g20-4'!H24</f>
         <v>97.804054054054035</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="58">
         <f>'g20-4'!P24</f>
         <v>90.270270270270245</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="57">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="63">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="F24" s="6">
-        <v>20</v>
-      </c>
-      <c r="G24" s="35" t="s">
+      <c r="F24" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="5">
+      <c r="G24" s="57">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="I24" s="7">
+      <c r="H24" s="63">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="J24" s="6">
+      <c r="I24" s="58">
         <f>'gvar-2'!H24</f>
         <v>97.736486486486484</v>
       </c>
-      <c r="K24" s="7">
+      <c r="J24" s="63">
         <f>'gvar-2'!P24</f>
         <v>90.540540540540491</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="57">
         <f>'g20-4'!H25</f>
         <v>80.407427477646735</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="58">
         <f>'g20-4'!P25</f>
         <v>69.26557605290634</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="57">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="63">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="F25" s="6">
-        <v>21</v>
-      </c>
-      <c r="G25" s="35" t="s">
+      <c r="F25" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="5">
+      <c r="G25" s="57">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="I25" s="7">
+      <c r="H25" s="63">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="J25" s="6">
+      <c r="I25" s="58">
         <f>'gvar-2'!H25</f>
         <v>81.737477384562879</v>
       </c>
-      <c r="K25" s="7">
+      <c r="J25" s="63">
         <f>'gvar-2'!P25</f>
         <v>68.796380090497721</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="57">
         <f>'g20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="58">
         <f>'g20-4'!P26</f>
         <v>96.047619047619008</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="57">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="63">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="F26" s="6">
-        <v>22</v>
-      </c>
-      <c r="G26" s="35" t="s">
+      <c r="F26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="5">
+      <c r="G26" s="57">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="I26" s="7">
+      <c r="H26" s="63">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="J26" s="6">
+      <c r="I26" s="58">
         <f>'gvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="K26" s="7">
+      <c r="J26" s="63">
         <f>'gvar-2'!P26</f>
         <v>96.619047619047592</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="57">
         <f>'g20-4'!H27</f>
         <v>98.828642411823367</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="58">
         <f>'g20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="57">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="63">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="F27" s="6">
-        <v>23</v>
-      </c>
-      <c r="G27" s="35" t="s">
+      <c r="F27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="5">
+      <c r="G27" s="57">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="H27" s="63">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="J27" s="6">
+      <c r="I27" s="58">
         <f>'gvar-2'!H27</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="K27" s="7">
+      <c r="J27" s="63">
         <f>'gvar-2'!P27</f>
         <v>96.484542722198341</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="57">
         <f>'g20-4'!H28</f>
         <v>89.109580132030686</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="58">
         <f>'g20-4'!P28</f>
         <v>69.697383858873309</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="57">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="63">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="F28" s="6">
-        <v>24</v>
-      </c>
-      <c r="G28" s="35" t="s">
+      <c r="F28" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="5">
+      <c r="G28" s="57">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="I28" s="7">
+      <c r="H28" s="63">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="J28" s="6">
+      <c r="I28" s="58">
         <f>'gvar-2'!H28</f>
         <v>89.452044311611331</v>
       </c>
-      <c r="K28" s="7">
+      <c r="J28" s="63">
         <f>'gvar-2'!P28</f>
         <v>68.045736320924405</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="57">
         <f>'g20-4'!H29</f>
         <v>93.352200429994241</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="58">
         <f>'g20-4'!P29</f>
         <v>78.637316561844813</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="57">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="63">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="F29" s="6">
-        <v>25</v>
-      </c>
-      <c r="G29" s="35" t="s">
+      <c r="F29" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="5">
+      <c r="G29" s="57">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="I29" s="7">
+      <c r="H29" s="63">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="J29" s="6">
+      <c r="I29" s="58">
         <f>'gvar-2'!H29</f>
         <v>93.444780834539884</v>
       </c>
-      <c r="K29" s="7">
+      <c r="J29" s="63">
         <f>'gvar-2'!P29</f>
         <v>76.373165618448581</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="57">
         <f>'g20-4'!H30</f>
         <v>98.593792172739498</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="58">
         <f>'g20-4'!P30</f>
         <v>96.660456450861631</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="57">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="63">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="F30" s="6">
-        <v>26</v>
-      </c>
-      <c r="G30" s="35" t="s">
+      <c r="F30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="5">
+      <c r="G30" s="57">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="I30" s="7">
+      <c r="H30" s="63">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="J30" s="6">
+      <c r="I30" s="58">
         <f>'gvar-2'!H30</f>
         <v>98.681897050318042</v>
       </c>
-      <c r="K30" s="7">
+      <c r="J30" s="63">
         <f>'gvar-2'!P30</f>
         <v>96.483465300419169</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="57">
         <f>'g20-4'!H31</f>
         <v>64.218582908557607</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="58">
         <f>'g20-4'!P31</f>
         <v>58.490535990535932</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="57">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="63">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="F31" s="6">
-        <v>27</v>
-      </c>
-      <c r="G31" s="35" t="s">
+      <c r="F31" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="5">
+      <c r="G31" s="57">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="I31" s="7">
+      <c r="H31" s="63">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="J31" s="6">
+      <c r="I31" s="58">
         <f>'gvar-2'!H31</f>
         <v>64.521755039867884</v>
       </c>
-      <c r="K31" s="7">
+      <c r="J31" s="63">
         <f>'gvar-2'!P31</f>
         <v>58.693921193921142</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="57">
         <f>'g20-4'!H32</f>
         <v>65.91624315871772</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="58">
         <f>'g20-4'!P32</f>
         <v>60.9112460815047</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="57">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="63">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="F32" s="6">
-        <v>28</v>
-      </c>
-      <c r="G32" s="35" t="s">
+      <c r="F32" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="5">
+      <c r="G32" s="57">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="I32" s="7">
+      <c r="H32" s="63">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="J32" s="6">
+      <c r="I32" s="58">
         <f>'gvar-2'!H32</f>
         <v>66.32266419077402</v>
       </c>
-      <c r="K32" s="7">
+      <c r="J32" s="63">
         <f>'gvar-2'!P32</f>
         <v>60.599333855799365</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="65">
         <f>'g20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="66">
         <f>'g20-4'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="65">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="67">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="F33" s="9">
-        <v>29</v>
-      </c>
-      <c r="G33" s="36" t="s">
+      <c r="F33" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="8">
+      <c r="G33" s="65">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="I33" s="10">
+      <c r="H33" s="67">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="J33" s="9">
+      <c r="I33" s="66">
         <f>'gvar-2'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="K33" s="10">
+      <c r="J33" s="67">
         <f>'gvar-2'!P33</f>
         <v>88.16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="15">
+      <c r="B35" s="70">
         <f>AVERAGE(B5:B33)</f>
         <v>88.628775867726389</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="70">
         <f t="shared" ref="C35:E35" si="0">AVERAGE(C5:C33)</f>
         <v>80.857700975286804</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="70">
         <f t="shared" si="0"/>
         <v>88.697024013966555</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="70">
         <f t="shared" si="0"/>
         <v>80.902465605922444</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="15">
-        <f>AVERAGE(H5:H33)</f>
+      <c r="G35" s="70">
+        <f>AVERAGE(G5:G33)</f>
         <v>88.697024013966555</v>
       </c>
-      <c r="I35" s="15">
-        <f t="shared" ref="I35:K35" si="1">AVERAGE(I5:I33)</f>
+      <c r="H35" s="70">
+        <f t="shared" ref="H35:J35" si="1">AVERAGE(H5:H33)</f>
         <v>80.902465605922444</v>
       </c>
-      <c r="J35" s="15">
+      <c r="I35" s="70">
         <f t="shared" si="1"/>
         <v>88.898946777576953</v>
       </c>
-      <c r="K35" s="17">
+      <c r="J35" s="71">
         <f t="shared" si="1"/>
         <v>80.89958560623127</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="39">
         <v>0.79159999999999997</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="H37" s="15" t="s">
+      <c r="D37" s="41"/>
+      <c r="G37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="37">
+      <c r="H37" s="39">
         <v>0.98260000000000003</v>
       </c>
-      <c r="J37" s="39"/>
+      <c r="I37" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H37:I37"/>
   </mergeCells>
   <conditionalFormatting sqref="B35 D35">
     <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
@@ -21372,14 +21345,14 @@
       <formula>MAX($C$35,$E$35)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35 J35">
+  <conditionalFormatting sqref="G35 I35">
     <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
-      <formula>MAX($H$35,$J$35)</formula>
+      <formula>MAX($G$35,$I$35)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35 K35">
+  <conditionalFormatting sqref="H35 J35">
     <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
-      <formula>MAX($I$35,$K$35)</formula>
+      <formula>MAX($H$35,$J$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C37FC8-BECD-4B04-A122-63A6A6C229C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A8517B-ED21-4EF0-8E0B-D3C00E33F08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="840" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="72">
   <si>
     <t>resultsPro/g20-2</t>
   </si>
@@ -220,15 +220,51 @@
   <si>
     <t>WILCOSON</t>
   </si>
+  <si>
+    <t>Comparación</t>
+  </si>
+  <si>
+    <t>p-valor</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
+    <t>R-</t>
+  </si>
+  <si>
+    <t>global vs local</t>
+  </si>
+  <si>
+    <t>g20-4 vs g20-2</t>
+  </si>
+  <si>
+    <t>g20-2 vs gvar-2</t>
+  </si>
+  <si>
+    <t>l20-4 vs l20-2</t>
+  </si>
+  <si>
+    <t>l20-2 vs lvar-2</t>
+  </si>
+  <si>
+    <t>g20-4 vs l20-4</t>
+  </si>
+  <si>
+    <t>g20-2 vs l20-2</t>
+  </si>
+  <si>
+    <t>gvar-2 vs lvar-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,6 +576,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,38 +662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4196,44 +4243,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D17CE1-347F-419E-835D-97B7F59D05CF}">
-  <dimension ref="B3:N37"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="H3" s="39" t="s">
+      <c r="F3" s="63"/>
+      <c r="H3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
         <v>49</v>
       </c>
@@ -4259,1208 +4307,1244 @@
       <c r="K4" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="76">
+      <c r="M4" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="39">
         <f>'l20-4'!H5</f>
         <v>86.764150943396203</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="40">
         <f>'l20-4'!P5</f>
         <v>85.886792452830164</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="41">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="42">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="39">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="45">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="40">
         <f>'lvar-2'!H5</f>
         <v>86.018867924528223</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="45">
         <f>'lvar-2'!P5</f>
         <v>85.452830188679201</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="77">
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="O5">
+        <v>15.5</v>
+      </c>
+      <c r="P5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="39">
         <f>'l20-4'!H6</f>
         <v>80.072463768115895</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="40">
         <f>'l20-4'!P6</f>
         <v>62.608695652173878</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="39">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="45">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="39">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="45">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="40">
         <f>'lvar-2'!H6</f>
         <v>80.362318840579675</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="45">
         <f>'lvar-2'!P6</f>
         <v>66.376811594202849</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="77">
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="59">
         <v>3</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="39">
         <f>'l20-4'!H7</f>
         <v>88.888770698152612</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="40">
         <f>'l20-4'!P7</f>
         <v>58.248587570621439</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="39">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="45">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="39">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="45">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="40">
         <f>'lvar-2'!H7</f>
         <v>89.564230755593343</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="45">
         <f>'lvar-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="77">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="59">
         <v>4</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="39">
         <f>'l20-4'!H8</f>
         <v>92.187482661044186</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="40">
         <f>'l20-4'!P8</f>
         <v>81.848112379280025</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="39">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="45">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="39">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="45">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="40">
         <f>'lvar-2'!H8</f>
         <v>91.889807468234977</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="45">
         <f>'lvar-2'!P8</f>
         <v>80.943810359964857</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="77">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="59">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="39">
         <f>'l20-4'!H9</f>
         <v>82.012103903168722</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="40">
         <f>'l20-4'!P9</f>
         <v>64.518272425249137</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="39">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="45">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="39">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="45">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="40">
         <f>'lvar-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="45">
         <f>'lvar-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="77">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="59">
         <v>6</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="39">
         <f>'l20-4'!H10</f>
         <v>81.861826697892226</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="40">
         <f>'l20-4'!P10</f>
         <v>71.226864093072408</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="39">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="45">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="39">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="45">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="40">
         <f>'lvar-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="45">
         <f>'lvar-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="77">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="59">
         <v>7</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="39">
         <f>'l20-4'!H11</f>
         <v>98.647432638535818</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="40">
         <f>'l20-4'!P11</f>
         <v>88.88933601609655</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="39">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="45">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="39">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="45">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="40">
         <f>'lvar-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="45">
         <f>'lvar-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="77">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="59">
         <v>8</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="39">
         <f>'l20-4'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="40">
         <f>'l20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="39">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="45">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="39">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="45">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="40">
         <f>'lvar-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="45">
         <f>'lvar-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="77">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="59">
         <v>9</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="39">
         <f>'l20-4'!H13</f>
         <v>84.503080396136056</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="40">
         <f>'l20-4'!P13</f>
         <v>81.280978035640246</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="39">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="45">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="39">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="45">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="40">
         <f>'lvar-2'!H13</f>
         <v>84.64768752143658</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="45">
         <f>'lvar-2'!P13</f>
         <v>80.808122668876877</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="77">
+      <c r="N13" s="65"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="59">
         <v>10</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="39">
         <f>'l20-4'!H14</f>
         <v>99.186046511627893</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="40">
         <f>'l20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="39">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="45">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="39">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="45">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="40">
         <f>'lvar-2'!H14</f>
         <v>99.302325581395337</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="45">
         <f>'lvar-2'!P14</f>
         <v>97.209302325581362</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="77">
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="59">
         <v>11</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="39">
         <f>'l20-4'!H15</f>
         <v>97.034043748244741</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="40">
         <f>'l20-4'!P15</f>
         <v>93.611342785654671</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="39">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="45">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="39">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="45">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="40">
         <f>'lvar-2'!H15</f>
         <v>97.079705848701366</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="45">
         <f>'lvar-2'!P15</f>
         <v>94.336947456213451</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="47"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="77">
+      <c r="N15" s="69"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="59">
         <v>12</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="39">
         <f>'l20-4'!H16</f>
         <v>98.613636363636331</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="40">
         <f>'l20-4'!P16</f>
         <v>91.454545454545411</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="39">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="45">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="39">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="45">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="40">
         <f>'lvar-2'!H16</f>
         <v>98.613636363636317</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="45">
         <f>'lvar-2'!P16</f>
         <v>93.181818181818173</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="77">
+      <c r="B17" s="59">
         <v>13</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="39">
         <f>'l20-4'!H17</f>
         <v>83.507569712419581</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="40">
         <f>'l20-4'!P17</f>
         <v>81.365899201699321</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="39">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="45">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="39">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="45">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="40">
         <f>'lvar-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="45">
         <f>'lvar-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="77">
+      <c r="B18" s="59">
         <v>14</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="39">
         <f>'l20-4'!H18</f>
         <v>83.789094568470077</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="40">
         <f>'l20-4'!P18</f>
         <v>75.124352771411566</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="39">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="45">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="39">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="45">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="40">
         <f>'lvar-2'!H18</f>
         <v>83.658589550064832</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="45">
         <f>'lvar-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="77">
+      <c r="B19" s="59">
         <v>15</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="39">
         <f>'l20-4'!H19</f>
         <v>97.263513513513487</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="40">
         <f>'l20-4'!P19</f>
         <v>91.756756756756701</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="39">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="45">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="39">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="45">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="40">
         <f>'lvar-2'!H19</f>
         <v>97.195945945945908</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="45">
         <f>'lvar-2'!P19</f>
         <v>90.675675675675635</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="77">
+      <c r="B20" s="59">
         <v>16</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="39">
         <f>'l20-4'!H20</f>
         <v>85.497487816856136</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="40">
         <f>'l20-4'!P20</f>
         <v>79.934593023255772</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="39">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="45">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="39">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="45">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="40">
         <f>'lvar-2'!H20</f>
         <v>86.352914510218667</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="45">
         <f>'lvar-2'!P20</f>
         <v>79.939437984496095</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="77">
+      <c r="B21" s="59">
         <v>17</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="39">
         <f>'l20-4'!H21</f>
         <v>96.586206896551658</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="40">
         <f>'l20-4'!P21</f>
         <v>96.275862068965452</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="39">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="45">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="39">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="45">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="40">
         <f>'lvar-2'!H21</f>
         <v>97.206896551724085</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="45">
         <f>'lvar-2'!P21</f>
         <v>97.011494252873504</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="77">
+      <c r="B22" s="59">
         <v>18</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="39">
         <f>'l20-4'!H22</f>
         <v>76.822314049586723</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="40">
         <f>'l20-4'!P22</f>
         <v>57.634408602150508</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="39">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="45">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="39">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="45">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="40">
         <f>'lvar-2'!H22</f>
         <v>76.65564738292008</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="45">
         <f>'lvar-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="77">
+      <c r="B23" s="59">
         <v>19</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="39">
         <f>'l20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="40">
         <f>'l20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="39">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="45">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="39">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="45">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="40">
         <f>'lvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="45">
         <f>'lvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="77">
+      <c r="B24" s="59">
         <v>20</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="39">
         <f>'l20-4'!H24</f>
         <v>97.668918918918877</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="40">
         <f>'l20-4'!P24</f>
         <v>89.999999999999943</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="39">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="45">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="39">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="45">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="40">
         <f>'lvar-2'!H24</f>
         <v>97.939189189189165</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="45">
         <f>'lvar-2'!P24</f>
         <v>90.405405405405389</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="77">
+      <c r="B25" s="59">
         <v>21</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="39">
         <f>'l20-4'!H25</f>
         <v>80.200676496551907</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="40">
         <f>'l20-4'!P25</f>
         <v>68.563870518621613</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="39">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="45">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="39">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="45">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="40">
         <f>'lvar-2'!H25</f>
         <v>82.239561937891622</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="45">
         <f>'lvar-2'!P25</f>
         <v>70.093978419770238</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="77">
+      <c r="B26" s="59">
         <v>22</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="39">
         <f>'l20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="40">
         <f>'l20-4'!P26</f>
         <v>93.809523809523768</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="39">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="45">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="39">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="45">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="40">
         <f>'lvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="45">
         <f>'lvar-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="77">
+      <c r="B27" s="59">
         <v>23</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="39">
         <f>'l20-4'!H27</f>
         <v>98.609063088039278</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="40">
         <f>'l20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="39">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="45">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="39">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="45">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="40">
         <f>'lvar-2'!H27</f>
         <v>98.792079340525376</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="45">
         <f>'lvar-2'!P27</f>
         <v>97.218763417775833</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="77">
+      <c r="B28" s="59">
         <v>24</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="39">
         <f>'l20-4'!H28</f>
         <v>88.835138425634256</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="40">
         <f>'l20-4'!P28</f>
         <v>69.674840072563342</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="39">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="45">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="39">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="45">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="40">
         <f>'lvar-2'!H28</f>
         <v>88.7696842693842</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="45">
         <f>'lvar-2'!P28</f>
         <v>68.585955529135134</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="77">
+      <c r="B29" s="59">
         <v>25</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="39">
         <f>'l20-4'!H29</f>
         <v>92.884471940678296</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="40">
         <f>'l20-4'!P29</f>
         <v>79.021663172606537</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="39">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="45">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="39">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="45">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="40">
         <f>'lvar-2'!H29</f>
         <v>93.258303716379245</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="45">
         <f>'lvar-2'!P29</f>
         <v>79.37805730258556</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="77">
+      <c r="B30" s="59">
         <v>26</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="39">
         <f>'l20-4'!H30</f>
         <v>98.637844611528791</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="40">
         <f>'l20-4'!P30</f>
         <v>95.958702064896713</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="39">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="45">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="39">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="45">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="40">
         <f>'lvar-2'!H30</f>
         <v>98.813668787352952</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="45">
         <f>'lvar-2'!P30</f>
         <v>95.955596956994185</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="77">
+      <c r="B31" s="59">
         <v>27</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="39">
         <f>'l20-4'!H31</f>
         <v>64.605930124042985</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="40">
         <f>'l20-4'!P31</f>
         <v>58.356310856310799</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="39">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="45">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="39">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="45">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="40">
         <f>'lvar-2'!H31</f>
         <v>64.420815852997777</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="45">
         <f>'lvar-2'!P31</f>
         <v>57.681090181090141</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="77">
+      <c r="B32" s="59">
         <v>28</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="39">
         <f>'l20-4'!H32</f>
         <v>65.447334343236889</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="40">
         <f>'l20-4'!P32</f>
         <v>60.471590909090843</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="39">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="45">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="39">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="45">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="40">
         <f>'lvar-2'!H32</f>
         <v>66.338203674745856</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="45">
         <f>'lvar-2'!P32</f>
         <v>60.661637931034456</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="78">
+      <c r="B33" s="60">
         <v>29</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="47">
         <f>'l20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="48">
         <f>'l20-4'!P33</f>
         <v>86.72</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="47">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="49">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="47">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="49">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="48">
         <f>'lvar-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="49">
         <f>'lvar-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="70">
+      <c r="C35" s="52">
         <f>AVERAGE(C5:C33)</f>
         <v>88.62136593901613</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="55">
         <f t="shared" ref="D35:F35" si="0">AVERAGE(D5:D33)</f>
         <v>80.362775576082171</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="52">
         <f t="shared" si="0"/>
         <v>88.576875201155545</v>
       </c>
-      <c r="F35" s="74">
+      <c r="F35" s="56">
         <f t="shared" si="0"/>
         <v>80.690826112341171</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="70">
+      <c r="G35" s="57"/>
+      <c r="H35" s="52">
         <f>AVERAGE(H5:H33)</f>
         <v>88.576875201155545</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="55">
         <f t="shared" ref="I35:K35" si="1">AVERAGE(I5:I33)</f>
         <v>80.690826112341171</v>
       </c>
-      <c r="J35" s="70">
+      <c r="J35" s="52">
         <f t="shared" si="1"/>
         <v>88.763988913106189</v>
       </c>
-      <c r="K35" s="74">
+      <c r="K35" s="56">
         <f t="shared" si="1"/>
         <v>80.895361322878571</v>
       </c>
@@ -5469,28 +5553,28 @@
       <c r="C37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="61">
         <v>0.51639999999999997</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="63"/>
       <c r="H37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="61">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="J37" s="41"/>
+      <c r="J37" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <conditionalFormatting sqref="C35 E35">
     <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
@@ -5518,56 +5602,50 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:N37"/>
+  <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="98" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="54" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="55"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="77"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="C3" s="28" t="s">
         <v>49</v>
@@ -5605,731 +5683,803 @@
       <c r="N3" s="30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="41">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="42">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="41">
         <f>'g20-4'!H5</f>
         <v>86.981132075471663</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="42">
         <f>'g20-4'!P5</f>
         <v>86.18867924528297</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="40">
         <f>'gvar-2'!H5</f>
         <v>86.433962264150907</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="40">
         <f>'gvar-2'!P5</f>
         <v>85.698113207547138</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="41">
         <f>'l20-2'!H5</f>
         <v>86.363207547169779</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="42">
         <f>'l20-2'!P5</f>
         <v>85.75471698113202</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="43">
         <f>'l20-4'!H5</f>
         <v>86.764150943396203</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="42">
         <f>'l20-4'!P5</f>
         <v>85.886792452830164</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="40">
         <f>'lvar-2'!H5</f>
         <v>86.018867924528223</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="45">
         <f>'lvar-2'!P5</f>
         <v>85.452830188679201</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="39">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="45">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="39">
         <f>'g20-4'!H6</f>
         <v>79.420289855072411</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="45">
         <f>'g20-4'!P6</f>
         <v>66.086956521739083</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="40">
         <f>'gvar-2'!H6</f>
         <v>80.652173913043441</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="40">
         <f>'gvar-2'!P6</f>
         <v>64.637681159420239</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="39">
         <f>'l20-2'!H6</f>
         <v>79.565217391304287</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="45">
         <f>'l20-2'!P6</f>
         <v>65.217391304347757</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="40">
         <f>'l20-4'!H6</f>
         <v>80.072463768115895</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="45">
         <f>'l20-4'!P6</f>
         <v>62.608695652173878</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="40">
         <f>'lvar-2'!H6</f>
         <v>80.362318840579675</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="45">
         <f>'lvar-2'!P6</f>
         <v>66.376811594202849</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="39">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="45">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="39">
         <f>'g20-4'!H7</f>
         <v>89.899656064957568</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="45">
         <f>'g20-4'!P7</f>
         <v>56.892655367231626</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="40">
         <f>'gvar-2'!H7</f>
         <v>90.320887848810372</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="40">
         <f>'gvar-2'!P7</f>
         <v>56.214689265536698</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="39">
         <f>'l20-2'!H7</f>
         <v>89.479842569939322</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="45">
         <f>'l20-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="40">
         <f>'l20-4'!H7</f>
         <v>88.888770698152612</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="45">
         <f>'l20-4'!P7</f>
         <v>58.248587570621439</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="40">
         <f>'lvar-2'!H7</f>
         <v>89.564230755593343</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="45">
         <f>'lvar-2'!P7</f>
         <v>55.54802259887002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="39">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="45">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="39">
         <f>'g20-4'!H8</f>
         <v>92.188037507629105</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="45">
         <f>'g20-4'!P8</f>
         <v>82.137840210711119</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="40">
         <f>'gvar-2'!H8</f>
         <v>92.336736392387436</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="40">
         <f>'gvar-2'!P8</f>
         <v>83.336259877085126</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="39">
         <f>'l20-2'!H8</f>
         <v>91.592132275425797</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="45">
         <f>'l20-2'!P8</f>
         <v>80.061457418788365</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="40">
         <f>'l20-4'!H8</f>
         <v>92.187482661044186</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="45">
         <f>'l20-4'!P8</f>
         <v>81.848112379280025</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="40">
         <f>'lvar-2'!H8</f>
         <v>91.889807468234977</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="45">
         <f>'lvar-2'!P8</f>
         <v>80.943810359964857</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="39">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="45">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="39">
         <f>'g20-4'!H9</f>
         <v>81.309669522643773</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="45">
         <f>'g20-4'!P9</f>
         <v>67.297895902547026</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="40">
         <f>'gvar-2'!H9</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="40">
         <f>'gvar-2'!P9</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="39">
         <f>'l20-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="45">
         <f>'l20-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="40">
         <f>'l20-4'!H9</f>
         <v>82.012103903168722</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="45">
         <f>'l20-4'!P9</f>
         <v>64.518272425249137</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="40">
         <f>'lvar-2'!H9</f>
         <v>81.310349517203818</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="45">
         <f>'lvar-2'!P9</f>
         <v>68.250276854927975</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="39">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="45">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="39">
         <f>'g20-4'!H10</f>
         <v>81.20843091334892</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="45">
         <f>'g20-4'!P10</f>
         <v>74.494976203067139</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="40">
         <f>'gvar-2'!H10</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="40">
         <f>'gvar-2'!P10</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="39">
         <f>'l20-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="45">
         <f>'l20-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="40">
         <f>'l20-4'!H10</f>
         <v>81.861826697892226</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="45">
         <f>'l20-4'!P10</f>
         <v>71.226864093072408</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="40">
         <f>'lvar-2'!H10</f>
         <v>81.290398126463657</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="45">
         <f>'lvar-2'!P10</f>
         <v>73.183500793231048</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="39">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="45">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="39">
         <f>'g20-4'!H11</f>
         <v>98.860701576004047</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="45">
         <f>'g20-4'!P11</f>
         <v>88.893360160965742</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="40">
         <f>'gvar-2'!H11</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="40">
         <f>'gvar-2'!P11</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="39">
         <f>'l20-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="45">
         <f>'l20-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="40">
         <f>'l20-4'!H11</f>
         <v>98.647432638535818</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="45">
         <f>'l20-4'!P11</f>
         <v>88.88933601609655</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="40">
         <f>'lvar-2'!H11</f>
         <v>99.07422470767662</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="45">
         <f>'lvar-2'!P11</f>
         <v>90.595573440643832</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10">
+        <v>5.11E-2</v>
+      </c>
+      <c r="R10">
+        <v>22</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="39">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="45">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="39">
         <f>'g20-4'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="45">
         <f>'g20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="40">
         <f>'gvar-2'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="40">
         <f>'gvar-2'!P12</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="39">
         <f>'l20-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="45">
         <f>'l20-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="40">
         <f>'l20-4'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="45">
         <f>'l20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="40">
         <f>'lvar-2'!H12</f>
         <v>98.666666666666657</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="45">
         <f>'lvar-2'!P12</f>
         <v>93.999999999999972</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="R11">
+        <v>18.5</v>
+      </c>
+      <c r="S11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="39">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="45">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="39">
         <f>'g20-4'!H13</f>
         <v>84.253348435093073</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="45">
         <f>'g20-4'!P13</f>
         <v>80.965050421328854</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="40">
         <f>'gvar-2'!H13</f>
         <v>84.621380394148986</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="40">
         <f>'gvar-2'!P13</f>
         <v>80.860892388451433</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="39">
         <f>'l20-2'!H13</f>
         <v>84.581975859646874</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="45">
         <f>'l20-2'!P13</f>
         <v>81.018234562784883</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="40">
         <f>'l20-4'!H13</f>
         <v>84.503080396136056</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="45">
         <f>'l20-4'!P13</f>
         <v>81.280978035640246</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="40">
         <f>'lvar-2'!H13</f>
         <v>84.64768752143658</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="45">
         <f>'lvar-2'!P13</f>
         <v>80.808122668876877</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="R12">
+        <v>17.5</v>
+      </c>
+      <c r="S12">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="39">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="45">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="39">
         <f>'g20-4'!H14</f>
         <v>99.186046511627879</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="45">
         <f>'g20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="40">
         <f>'gvar-2'!H14</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="40">
         <f>'gvar-2'!P14</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="39">
         <f>'l20-2'!H14</f>
         <v>99.069767441860421</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="45">
         <f>'l20-2'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="40">
         <f>'l20-4'!H14</f>
         <v>99.186046511627893</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="45">
         <f>'l20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="40">
         <f>'lvar-2'!H14</f>
         <v>99.302325581395337</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="45">
         <f>'lvar-2'!P14</f>
         <v>97.209302325581362</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="39">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="45">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="39">
         <f>'g20-4'!H15</f>
         <v>97.079601834805089</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="45">
         <f>'g20-4'!P15</f>
         <v>93.97497914929103</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="40">
         <f>'gvar-2'!H15</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="40">
         <f>'gvar-2'!P15</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="39">
         <f>'l20-2'!H15</f>
         <v>96.897161460771144</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="45">
         <f>'l20-2'!P15</f>
         <v>93.971643035863167</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="40">
         <f>'l20-4'!H15</f>
         <v>97.034043748244741</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="45">
         <f>'l20-4'!P15</f>
         <v>93.611342785654671</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="40">
         <f>'lvar-2'!H15</f>
         <v>97.079705848701366</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="45">
         <f>'lvar-2'!P15</f>
         <v>94.336947456213451</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="39">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="45">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="39">
         <f>'g20-4'!H16</f>
         <v>98.477272727272677</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="45">
         <f>'g20-4'!P16</f>
         <v>92.181818181818144</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="40">
         <f>'gvar-2'!H16</f>
         <v>98.636363636363598</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="40">
         <f>'gvar-2'!P16</f>
         <v>92.181818181818159</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="39">
         <f>'l20-2'!H16</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="45">
         <f>'l20-2'!P16</f>
         <v>92.090909090909051</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="40">
         <f>'l20-4'!H16</f>
         <v>98.613636363636331</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="45">
         <f>'l20-4'!P16</f>
         <v>91.454545454545411</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="40">
         <f>'lvar-2'!H16</f>
         <v>98.613636363636317</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="45">
         <f>'lvar-2'!P16</f>
         <v>93.181818181818173</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="39">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="45">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="39">
         <f>'g20-4'!H17</f>
         <v>83.280935203843697</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="45">
         <f>'g20-4'!P17</f>
         <v>81.513482029670698</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="40">
         <f>'gvar-2'!H17</f>
         <v>84.238541433286144</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="40">
         <f>'gvar-2'!P17</f>
         <v>82.050279233905442</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="39">
         <f>'l20-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="45">
         <f>'l20-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="40">
         <f>'l20-4'!H17</f>
         <v>83.507569712419581</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="45">
         <f>'l20-4'!P17</f>
         <v>81.365899201699321</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="40">
         <f>'lvar-2'!H17</f>
         <v>83.507615719802573</v>
       </c>
-      <c r="N16" s="63">
+      <c r="N16" s="45">
         <f>'lvar-2'!P17</f>
         <v>81.365590845239282</v>
       </c>
@@ -6341,51 +6491,51 @@
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="39">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="45">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="39">
         <f>'g20-4'!H18</f>
         <v>83.821297105479161</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="45">
         <f>'g20-4'!P18</f>
         <v>74.085391732450489</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="40">
         <f>'gvar-2'!H18</f>
         <v>83.821561928974319</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="40">
         <f>'gvar-2'!P18</f>
         <v>75.254222901281679</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="39">
         <f>'l20-2'!H18</f>
         <v>83.593495934959321</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="45">
         <f>'l20-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="40">
         <f>'l20-4'!H18</f>
         <v>83.789094568470077</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="45">
         <f>'l20-4'!P18</f>
         <v>75.124352771411566</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="40">
         <f>'lvar-2'!H18</f>
         <v>83.658589550064832</v>
       </c>
-      <c r="N17" s="63">
+      <c r="N17" s="45">
         <f>'lvar-2'!P18</f>
         <v>75.774552245140441</v>
       </c>
@@ -6397,51 +6547,51 @@
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="39">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="45">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="39">
         <f>'g20-4'!H19</f>
         <v>97.094594594594568</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="45">
         <f>'g20-4'!P19</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="40">
         <f>'gvar-2'!H19</f>
         <v>97.533783783783747</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="40">
         <f>'gvar-2'!P19</f>
         <v>91.216216216216182</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="39">
         <f>'l20-2'!H19</f>
         <v>97.128378378378343</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="45">
         <f>'l20-2'!P19</f>
         <v>90.540540540540519</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="40">
         <f>'l20-4'!H19</f>
         <v>97.263513513513487</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="45">
         <f>'l20-4'!P19</f>
         <v>91.756756756756701</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="40">
         <f>'lvar-2'!H19</f>
         <v>97.195945945945908</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="45">
         <f>'lvar-2'!P19</f>
         <v>90.675675675675635</v>
       </c>
@@ -6453,51 +6603,51 @@
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="39">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="45">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="39">
         <f>'g20-4'!H20</f>
         <v>85.575459937289835</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="45">
         <f>'g20-4'!P20</f>
         <v>81.022286821705393</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="40">
         <f>'gvar-2'!H20</f>
         <v>86.275546824827117</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="40">
         <f>'gvar-2'!P20</f>
         <v>81.022286821705379</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="39">
         <f>'l20-2'!H20</f>
         <v>85.964489441275305</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="45">
         <f>'l20-2'!P20</f>
         <v>79.156976744186025</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="40">
         <f>'l20-4'!H20</f>
         <v>85.497487816856136</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="45">
         <f>'l20-4'!P20</f>
         <v>79.934593023255772</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="40">
         <f>'lvar-2'!H20</f>
         <v>86.352914510218667</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="45">
         <f>'lvar-2'!P20</f>
         <v>79.939437984496095</v>
       </c>
@@ -6509,51 +6659,51 @@
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="39">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="45">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="39">
         <f>'g20-4'!H21</f>
         <v>97.149425287356266</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="45">
         <f>'g20-4'!P21</f>
         <v>96.96551724137926</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="40">
         <f>'gvar-2'!H21</f>
         <v>97.390804597701091</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="40">
         <f>'gvar-2'!P21</f>
         <v>97.19540229885051</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="39">
         <f>'l20-2'!H21</f>
         <v>96.977011494252821</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="45">
         <f>'l20-2'!P21</f>
         <v>96.827586206896484</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="40">
         <f>'l20-4'!H21</f>
         <v>96.586206896551658</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="45">
         <f>'l20-4'!P21</f>
         <v>96.275862068965452</v>
       </c>
-      <c r="M20" s="58">
+      <c r="M20" s="40">
         <f>'lvar-2'!H21</f>
         <v>97.206896551724085</v>
       </c>
-      <c r="N20" s="63">
+      <c r="N20" s="45">
         <f>'lvar-2'!P21</f>
         <v>97.011494252873504</v>
       </c>
@@ -6565,51 +6715,51 @@
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="39">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="45">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="39">
         <f>'g20-4'!H22</f>
         <v>76.491735537190067</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="45">
         <f>'g20-4'!P22</f>
         <v>59.61290322580642</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="40">
         <f>'gvar-2'!H22</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="40">
         <f>'gvar-2'!P22</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="39">
         <f>'l20-2'!H22</f>
         <v>76.490358126721702</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="45">
         <f>'l20-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="40">
         <f>'l20-4'!H22</f>
         <v>76.822314049586723</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="45">
         <f>'l20-4'!P22</f>
         <v>57.634408602150508</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="40">
         <f>'lvar-2'!H22</f>
         <v>76.65564738292008</v>
       </c>
-      <c r="N21" s="63">
+      <c r="N21" s="45">
         <f>'lvar-2'!P22</f>
         <v>58.967741935483843</v>
       </c>
@@ -6621,51 +6771,51 @@
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="39">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="45">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="39">
         <f>'g20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="45">
         <f>'g20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="40">
         <f>'gvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="40">
         <f>'gvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="39">
         <f>'l20-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="45">
         <f>'l20-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="40">
         <f>'l20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="45">
         <f>'l20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="40">
         <f>'lvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="N22" s="63">
+      <c r="N22" s="45">
         <f>'lvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
@@ -6677,51 +6827,51 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="39">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="45">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="39">
         <f>'g20-4'!H24</f>
         <v>97.804054054054035</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="45">
         <f>'g20-4'!P24</f>
         <v>90.270270270270245</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="40">
         <f>'gvar-2'!H24</f>
         <v>97.736486486486484</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="40">
         <f>'gvar-2'!P24</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="39">
         <f>'l20-2'!H24</f>
         <v>97.837837837837839</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="45">
         <f>'l20-2'!P24</f>
         <v>89.864864864864842</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="40">
         <f>'l20-4'!H24</f>
         <v>97.668918918918877</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="45">
         <f>'l20-4'!P24</f>
         <v>89.999999999999943</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="40">
         <f>'lvar-2'!H24</f>
         <v>97.939189189189165</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="45">
         <f>'lvar-2'!P24</f>
         <v>90.405405405405389</v>
       </c>
@@ -6733,51 +6883,51 @@
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="39">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="45">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="39">
         <f>'g20-4'!H25</f>
         <v>80.407427477646735</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="45">
         <f>'g20-4'!P25</f>
         <v>69.26557605290634</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="40">
         <f>'gvar-2'!H25</f>
         <v>81.737477384562879</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="40">
         <f>'gvar-2'!P25</f>
         <v>68.796380090497721</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="39">
         <f>'l20-2'!H25</f>
         <v>80.880450648090644</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="45">
         <f>'l20-2'!P25</f>
         <v>69.977723633832198</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="40">
         <f>'l20-4'!H25</f>
         <v>80.200676496551907</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="45">
         <f>'l20-4'!P25</f>
         <v>68.563870518621613</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="40">
         <f>'lvar-2'!H25</f>
         <v>82.239561937891622</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N24" s="45">
         <f>'lvar-2'!P25</f>
         <v>70.093978419770238</v>
       </c>
@@ -6789,51 +6939,51 @@
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="39">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="45">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="39">
         <f>'g20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="45">
         <f>'g20-4'!P26</f>
         <v>96.047619047619008</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="40">
         <f>'gvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="40">
         <f>'gvar-2'!P26</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="39">
         <f>'l20-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="45">
         <f>'l20-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="40">
         <f>'l20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="45">
         <f>'l20-4'!P26</f>
         <v>93.809523809523768</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M25" s="40">
         <f>'lvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="45">
         <f>'lvar-2'!P26</f>
         <v>97.730158730158706</v>
       </c>
@@ -6845,51 +6995,51 @@
       <c r="B26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="39">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="45">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="39">
         <f>'g20-4'!H27</f>
         <v>98.828642411823367</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="45">
         <f>'g20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="40">
         <f>'gvar-2'!H27</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="40">
         <f>'gvar-2'!P27</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="39">
         <f>'l20-2'!H27</f>
         <v>98.645626159337255</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="45">
         <f>'l20-2'!P27</f>
         <v>96.77973379132672</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="40">
         <f>'l20-4'!H27</f>
         <v>98.609063088039278</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="45">
         <f>'l20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="40">
         <f>'lvar-2'!H27</f>
         <v>98.792079340525376</v>
       </c>
-      <c r="N26" s="63">
+      <c r="N26" s="45">
         <f>'lvar-2'!P27</f>
         <v>97.218763417775833</v>
       </c>
@@ -6901,51 +7051,51 @@
       <c r="B27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="39">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="45">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="39">
         <f>'g20-4'!H28</f>
         <v>89.109580132030686</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="45">
         <f>'g20-4'!P28</f>
         <v>69.697383858873309</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="40">
         <f>'gvar-2'!H28</f>
         <v>89.452044311611331</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="40">
         <f>'gvar-2'!P28</f>
         <v>68.045736320924405</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="39">
         <f>'l20-2'!H28</f>
         <v>88.564198390573551</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="45">
         <f>'l20-2'!P28</f>
         <v>69.430614349638063</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="40">
         <f>'l20-4'!H28</f>
         <v>88.835138425634256</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="45">
         <f>'l20-4'!P28</f>
         <v>69.674840072563342</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="40">
         <f>'lvar-2'!H28</f>
         <v>88.7696842693842</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N27" s="45">
         <f>'lvar-2'!P28</f>
         <v>68.585955529135134</v>
       </c>
@@ -6957,51 +7107,51 @@
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="39">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="45">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="39">
         <f>'g20-4'!H29</f>
         <v>93.352200429994241</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="45">
         <f>'g20-4'!P29</f>
         <v>78.637316561844813</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="40">
         <f>'gvar-2'!H29</f>
         <v>93.444780834539884</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="40">
         <f>'gvar-2'!P29</f>
         <v>76.373165618448581</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="39">
         <f>'l20-2'!H29</f>
         <v>92.603659339212811</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="45">
         <f>'l20-2'!P29</f>
         <v>79.762403913347271</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="40">
         <f>'l20-4'!H29</f>
         <v>92.884471940678296</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="45">
         <f>'l20-4'!P29</f>
         <v>79.021663172606537</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="40">
         <f>'lvar-2'!H29</f>
         <v>93.258303716379245</v>
       </c>
-      <c r="N28" s="63">
+      <c r="N28" s="45">
         <f>'lvar-2'!P29</f>
         <v>79.37805730258556</v>
       </c>
@@ -7013,51 +7163,51 @@
       <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="39">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="45">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="39">
         <f>'g20-4'!H30</f>
         <v>98.593792172739498</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="45">
         <f>'g20-4'!P30</f>
         <v>96.660456450861631</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="40">
         <f>'gvar-2'!H30</f>
         <v>98.681897050318042</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="40">
         <f>'gvar-2'!P30</f>
         <v>96.483465300419169</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="39">
         <f>'l20-2'!H30</f>
         <v>98.549932523616704</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="45">
         <f>'l20-2'!P30</f>
         <v>95.955596956994214</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="40">
         <f>'l20-4'!H30</f>
         <v>98.637844611528791</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="45">
         <f>'l20-4'!P30</f>
         <v>95.958702064896713</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="40">
         <f>'lvar-2'!H30</f>
         <v>98.813668787352952</v>
       </c>
-      <c r="N29" s="63">
+      <c r="N29" s="45">
         <f>'lvar-2'!P30</f>
         <v>95.955596956994185</v>
       </c>
@@ -7069,51 +7219,51 @@
       <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="39">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="45">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="39">
         <f>'g20-4'!H31</f>
         <v>64.218582908557607</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="45">
         <f>'g20-4'!P31</f>
         <v>58.490535990535932</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="40">
         <f>'gvar-2'!H31</f>
         <v>64.521755039867884</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="40">
         <f>'gvar-2'!P31</f>
         <v>58.693921193921142</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="39">
         <f>'l20-2'!H31</f>
         <v>64.336584037510676</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="45">
         <f>'l20-2'!P31</f>
         <v>57.411729911729857</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="40">
         <f>'l20-4'!H31</f>
         <v>64.605930124042985</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="45">
         <f>'l20-4'!P31</f>
         <v>58.356310856310799</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="40">
         <f>'lvar-2'!H31</f>
         <v>64.420815852997777</v>
       </c>
-      <c r="N30" s="63">
+      <c r="N30" s="45">
         <f>'lvar-2'!P31</f>
         <v>57.681090181090141</v>
       </c>
@@ -7125,51 +7275,51 @@
       <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="39">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="45">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="39">
         <f>'g20-4'!H32</f>
         <v>65.91624315871772</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="45">
         <f>'g20-4'!P32</f>
         <v>60.9112460815047</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="40">
         <f>'gvar-2'!H32</f>
         <v>66.32266419077402</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="40">
         <f>'gvar-2'!P32</f>
         <v>60.599333855799365</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="39">
         <f>'l20-2'!H32</f>
         <v>66.072456508991365</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="45">
         <f>'l20-2'!P32</f>
         <v>60.349137931034477</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="40">
         <f>'l20-4'!H32</f>
         <v>65.447334343236889</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="45">
         <f>'l20-4'!P32</f>
         <v>60.471590909090843</v>
       </c>
-      <c r="M31" s="58">
+      <c r="M31" s="40">
         <f>'lvar-2'!H32</f>
         <v>66.338203674745856</v>
       </c>
-      <c r="N31" s="63">
+      <c r="N31" s="45">
         <f>'lvar-2'!P32</f>
         <v>60.661637931034456</v>
       </c>
@@ -7181,155 +7331,155 @@
       <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="47">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="49">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="47">
         <f>'g20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="49">
         <f>'g20-4'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="48">
         <f>'gvar-2'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="48">
         <f>'gvar-2'!P33</f>
         <v>88.16</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="47">
         <f>'l20-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="49">
         <f>'l20-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="K32" s="66">
+      <c r="K32" s="48">
         <f>'l20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="L32" s="67">
+      <c r="L32" s="49">
         <f>'l20-4'!P33</f>
         <v>86.72</v>
       </c>
-      <c r="M32" s="66">
+      <c r="M32" s="48">
         <f>'lvar-2'!H33</f>
         <v>92.11999999999999</v>
       </c>
-      <c r="N32" s="67">
+      <c r="N32" s="49">
         <f>'lvar-2'!P33</f>
         <v>85.759999999999991</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="55">
         <f>AVERAGE(C4:C32)</f>
         <v>88.697024013966555</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="55">
         <f t="shared" ref="D34:N34" si="0">AVERAGE(D4:D32)</f>
         <v>80.902465605922444</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="52">
         <f t="shared" si="0"/>
         <v>88.628775867726389</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="56">
         <f t="shared" si="0"/>
         <v>80.857700975286804</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="55">
         <f t="shared" si="0"/>
         <v>88.898946777576953</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="55">
         <f t="shared" si="0"/>
         <v>80.89958560623127</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="52">
         <f t="shared" si="0"/>
         <v>88.576875201155545</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="56">
         <f t="shared" si="0"/>
         <v>80.690826112341171</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="55">
         <f t="shared" si="0"/>
         <v>88.62136593901613</v>
       </c>
-      <c r="L34" s="73">
+      <c r="L34" s="55">
         <f t="shared" si="0"/>
         <v>80.362775576082171</v>
       </c>
-      <c r="M34" s="70">
+      <c r="M34" s="52">
         <f t="shared" si="0"/>
         <v>88.763988913106189</v>
       </c>
-      <c r="N34" s="74">
+      <c r="N34" s="56">
         <f t="shared" si="0"/>
         <v>80.895361322878571</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="51"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="73"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="53"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7651,13 +7801,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041C8BC2-393A-4D94-BC91-058A9692495C}">
   <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -7673,13 +7824,13 @@
       <c r="F4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -8282,6 +8433,7 @@
     <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11077,21 +11229,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="6"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -12587,21 +12739,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -14097,21 +14249,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -15603,21 +15755,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -17109,21 +17261,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -18615,21 +18767,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
@@ -20112,10 +20264,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BB4B0-7DAF-4533-A185-05FEA29DE4AD}">
-  <dimension ref="A3:M37"/>
+  <dimension ref="A3:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20129,27 +20281,28 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="G3" s="39" t="s">
+      <c r="E3" s="63"/>
+      <c r="G3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="41"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>49</v>
       </c>
@@ -20175,1135 +20328,1171 @@
       <c r="J4" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="57">
+      <c r="L4" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
         <f>'g20-4'!H5</f>
         <v>86.981132075471663</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="40">
         <f>'g20-4'!P5</f>
         <v>86.18867924528297</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="41">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="42">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="39">
         <f>'g20-2'!H4</f>
         <v>86.849056603773519</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="45">
         <f>'g20-2'!P4</f>
         <v>86.622641509433919</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="40">
         <f>'gvar-2'!H5</f>
         <v>86.433962264150907</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="45">
         <f>'gvar-2'!P5</f>
         <v>85.698113207547138</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="57">
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="39">
         <f>'g20-4'!H6</f>
         <v>79.420289855072411</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="40">
         <f>'g20-4'!P6</f>
         <v>66.086956521739083</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="39">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="45">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="39">
         <f>'g20-2'!H5</f>
         <v>79.999999999999972</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="45">
         <f>'g20-2'!P5</f>
         <v>64.347826086956459</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="40">
         <f>'gvar-2'!H6</f>
         <v>80.652173913043441</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="45">
         <f>'gvar-2'!P6</f>
         <v>64.637681159420239</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="57">
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="N6">
+        <v>12.5</v>
+      </c>
+      <c r="O6">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="39">
         <f>'g20-4'!H7</f>
         <v>89.899656064957568</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="40">
         <f>'g20-4'!P7</f>
         <v>56.892655367231626</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="39">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="45">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="39">
         <f>'g20-2'!H6</f>
         <v>89.900365209374854</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="45">
         <f>'g20-2'!P6</f>
         <v>56.887005649717459</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="40">
         <f>'gvar-2'!H7</f>
         <v>90.320887848810372</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="45">
         <f>'gvar-2'!P7</f>
         <v>56.214689265536698</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="57">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
         <f>'g20-4'!H8</f>
         <v>92.188037507629105</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="40">
         <f>'g20-4'!P8</f>
         <v>82.137840210711119</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="39">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="45">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="39">
         <f>'g20-2'!H7</f>
         <v>92.113688065249903</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="45">
         <f>'g20-2'!P7</f>
         <v>84.23178226514483</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="40">
         <f>'gvar-2'!H8</f>
         <v>92.336736392387436</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="45">
         <f>'gvar-2'!P8</f>
         <v>83.336259877085126</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="57">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
         <f>'g20-4'!H9</f>
         <v>81.309669522643773</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="40">
         <f>'g20-4'!P9</f>
         <v>67.297895902547026</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="39">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="45">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="39">
         <f>'g20-2'!H8</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="45">
         <f>'g20-2'!P8</f>
         <v>69.158361018826099</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="40">
         <f>'gvar-2'!H9</f>
         <v>81.895144838841233</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="45">
         <f>'gvar-2'!P9</f>
         <v>69.158361018826099</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="57">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
         <f>'g20-4'!H10</f>
         <v>81.20843091334892</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="40">
         <f>'g20-4'!P10</f>
         <v>74.494976203067139</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="39">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="45">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="39">
         <f>'g20-2'!H9</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="45">
         <f>'g20-2'!P9</f>
         <v>71.549444738233689</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="40">
         <f>'gvar-2'!H10</f>
         <v>81.372365339578423</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="45">
         <f>'gvar-2'!P10</f>
         <v>71.549444738233689</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="57">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
         <f>'g20-4'!H11</f>
         <v>98.860701576004047</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="40">
         <f>'g20-4'!P11</f>
         <v>88.893360160965742</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="39">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="45">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="39">
         <f>'g20-2'!H10</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="45">
         <f>'g20-2'!P10</f>
         <v>91.167002012072402</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="40">
         <f>'gvar-2'!H11</f>
         <v>99.003050330452425</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="45">
         <f>'gvar-2'!P11</f>
         <v>91.167002012072402</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
         <f>'g20-4'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="40">
         <f>'g20-4'!P12</f>
         <v>94.666666666666657</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="39">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="45">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="39">
         <f>'g20-2'!H11</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="45">
         <f>'g20-2'!P11</f>
         <v>93.999999999999986</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="40">
         <f>'gvar-2'!H12</f>
         <v>98.499999999999972</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="45">
         <f>'gvar-2'!P12</f>
         <v>93.999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="57">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="39">
         <f>'g20-4'!H13</f>
         <v>84.253348435093073</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="40">
         <f>'g20-4'!P13</f>
         <v>80.965050421328854</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="39">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="45">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="39">
         <f>'g20-2'!H12</f>
         <v>84.227093144509439</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="45">
         <f>'g20-2'!P12</f>
         <v>80.387898881060877</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="40">
         <f>'gvar-2'!H13</f>
         <v>84.621380394148986</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="45">
         <f>'gvar-2'!P13</f>
         <v>80.860892388451433</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="57">
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="39">
         <f>'g20-4'!H14</f>
         <v>99.186046511627879</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="40">
         <f>'g20-4'!P14</f>
         <v>95.81395348837205</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="39">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="45">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="39">
         <f>'g20-2'!H13</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="45">
         <f>'g20-2'!P13</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="40">
         <f>'gvar-2'!H14</f>
         <v>98.953488372092963</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="45">
         <f>'gvar-2'!P14</f>
         <v>96.744186046511572</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="57">
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="39">
         <f>'g20-4'!H15</f>
         <v>97.079601834805089</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="40">
         <f>'g20-4'!P15</f>
         <v>93.97497914929103</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="39">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="45">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="39">
         <f>'g20-2'!H14</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="45">
         <f>'g20-2'!P14</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="40">
         <f>'gvar-2'!H15</f>
         <v>97.034147762141004</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="45">
         <f>'gvar-2'!P15</f>
         <v>94.518765638031638</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="57">
+      <c r="M15" s="69"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
         <f>'g20-4'!H16</f>
         <v>98.477272727272677</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="40">
         <f>'g20-4'!P16</f>
         <v>92.181818181818144</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="39">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="45">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="39">
         <f>'g20-2'!H15</f>
         <v>98.522727272727224</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="45">
         <f>'g20-2'!P15</f>
         <v>92.454545454545425</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="40">
         <f>'gvar-2'!H16</f>
         <v>98.636363636363598</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="45">
         <f>'gvar-2'!P16</f>
         <v>92.181818181818159</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
+      <c r="B17" s="39">
         <f>'g20-4'!H17</f>
         <v>83.280935203843697</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="40">
         <f>'g20-4'!P17</f>
         <v>81.513482029670698</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="39">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="45">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="39">
         <f>'g20-2'!H16</f>
         <v>84.067364010200322</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="45">
         <f>'g20-2'!P16</f>
         <v>81.939270908281017</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="40">
         <f>'gvar-2'!H17</f>
         <v>84.238541433286144</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="45">
         <f>'gvar-2'!P17</f>
         <v>82.050279233905442</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="57">
+      <c r="B18" s="39">
         <f>'g20-4'!H18</f>
         <v>83.821297105479161</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="40">
         <f>'g20-4'!P18</f>
         <v>74.085391732450489</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="39">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="45">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="39">
         <f>'g20-2'!H17</f>
         <v>83.593760758454465</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="45">
         <f>'g20-2'!P17</f>
         <v>75.383244206773583</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="40">
         <f>'gvar-2'!H18</f>
         <v>83.821561928974319</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="45">
         <f>'gvar-2'!P18</f>
         <v>75.254222901281679</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="57">
+      <c r="B19" s="39">
         <f>'g20-4'!H19</f>
         <v>97.094594594594568</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="40">
         <f>'g20-4'!P19</f>
         <v>90.540540540540491</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="39">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="45">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="39">
         <f>'g20-2'!H18</f>
         <v>97.331081081081066</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="45">
         <f>'g20-2'!P18</f>
         <v>90.945945945945908</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="40">
         <f>'gvar-2'!H19</f>
         <v>97.533783783783747</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="45">
         <f>'gvar-2'!P19</f>
         <v>91.216216216216182</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="57">
+      <c r="B20" s="39">
         <f>'g20-4'!H20</f>
         <v>85.575459937289835</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="40">
         <f>'g20-4'!P20</f>
         <v>81.022286821705393</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="39">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="45">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="39">
         <f>'g20-2'!H19</f>
         <v>85.341996902270367</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="45">
         <f>'g20-2'!P19</f>
         <v>80.405765503875941</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="40">
         <f>'gvar-2'!H20</f>
         <v>86.275546824827117</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="45">
         <f>'gvar-2'!P20</f>
         <v>81.022286821705379</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="57">
+      <c r="B21" s="39">
         <f>'g20-4'!H21</f>
         <v>97.149425287356266</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="40">
         <f>'g20-4'!P21</f>
         <v>96.96551724137926</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="39">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="45">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="39">
         <f>'g20-2'!H20</f>
         <v>97.310344827586164</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="45">
         <f>'g20-2'!P20</f>
         <v>97.241379310344769</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="40">
         <f>'gvar-2'!H21</f>
         <v>97.390804597701091</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="45">
         <f>'gvar-2'!P21</f>
         <v>97.19540229885051</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="57">
+      <c r="B22" s="39">
         <f>'g20-4'!H22</f>
         <v>76.491735537190067</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="40">
         <f>'g20-4'!P22</f>
         <v>59.61290322580642</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="39">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="45">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="39">
         <f>'g20-2'!H21</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="45">
         <f>'g20-2'!P21</f>
         <v>59.612903225806392</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="40">
         <f>'gvar-2'!H22</f>
         <v>76.987603305785086</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="45">
         <f>'gvar-2'!P22</f>
         <v>59.612903225806392</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="57">
+      <c r="B23" s="39">
         <f>'g20-4'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="40">
         <f>'g20-4'!P23</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="39">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="45">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="39">
         <f>'g20-2'!H22</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="45">
         <f>'g20-2'!P22</f>
         <v>78.873325087610766</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="40">
         <f>'gvar-2'!H23</f>
         <v>79.066342728821382</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="45">
         <f>'gvar-2'!P23</f>
         <v>78.873325087610766</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="57">
+      <c r="B24" s="39">
         <f>'g20-4'!H24</f>
         <v>97.804054054054035</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="40">
         <f>'g20-4'!P24</f>
         <v>90.270270270270245</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="39">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="45">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="39">
         <f>'g20-2'!H23</f>
         <v>97.499999999999972</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="45">
         <f>'g20-2'!P23</f>
         <v>90.405405405405361</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="40">
         <f>'gvar-2'!H24</f>
         <v>97.736486486486484</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="45">
         <f>'gvar-2'!P24</f>
         <v>90.540540540540491</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="57">
+      <c r="B25" s="39">
         <f>'g20-4'!H25</f>
         <v>80.407427477646735</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="40">
         <f>'g20-4'!P25</f>
         <v>69.26557605290634</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="39">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="45">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="39">
         <f>'g20-2'!H24</f>
         <v>80.318757483852295</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="45">
         <f>'g20-2'!P24</f>
         <v>67.261399234249865</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="40">
         <f>'gvar-2'!H25</f>
         <v>81.737477384562879</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="45">
         <f>'gvar-2'!P25</f>
         <v>68.796380090497721</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="57">
+      <c r="B26" s="39">
         <f>'g20-4'!H26</f>
         <v>100</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="40">
         <f>'g20-4'!P26</f>
         <v>96.047619047619008</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="39">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="45">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="39">
         <f>'g20-2'!H25</f>
         <v>100</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="45">
         <f>'g20-2'!P25</f>
         <v>96.619047619047592</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="40">
         <f>'gvar-2'!H26</f>
         <v>100</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="45">
         <f>'gvar-2'!P26</f>
         <v>96.619047619047592</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="57">
+      <c r="B27" s="39">
         <f>'g20-4'!H27</f>
         <v>98.828642411823367</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="40">
         <f>'g20-4'!P27</f>
         <v>96.924645770717021</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="39">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="45">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="39">
         <f>'g20-2'!H26</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="45">
         <f>'g20-2'!P26</f>
         <v>96.484542722198341</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="40">
         <f>'gvar-2'!H27</f>
         <v>98.938465556381431</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="45">
         <f>'gvar-2'!P27</f>
         <v>96.484542722198341</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="57">
+      <c r="B28" s="39">
         <f>'g20-4'!H28</f>
         <v>89.109580132030686</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="40">
         <f>'g20-4'!P28</f>
         <v>69.697383858873309</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="39">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="45">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="39">
         <f>'g20-2'!H27</f>
         <v>89.179238943730383</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="45">
         <f>'g20-2'!P27</f>
         <v>67.767958543146619</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="40">
         <f>'gvar-2'!H28</f>
         <v>89.452044311611331</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="45">
         <f>'gvar-2'!P28</f>
         <v>68.045736320924405</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="57">
+      <c r="B29" s="39">
         <f>'g20-4'!H29</f>
         <v>93.352200429994241</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="40">
         <f>'g20-4'!P29</f>
         <v>78.637316561844813</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="39">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="45">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="39">
         <f>'g20-2'!H28</f>
         <v>93.351322890614668</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="45">
         <f>'g20-2'!P28</f>
         <v>77.127882599580659</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="40">
         <f>'gvar-2'!H29</f>
         <v>93.444780834539884</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="45">
         <f>'gvar-2'!P29</f>
         <v>76.373165618448581</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="57">
+      <c r="B30" s="39">
         <f>'g20-4'!H30</f>
         <v>98.593792172739498</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="40">
         <f>'g20-4'!P30</f>
         <v>96.660456450861631</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="39">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="45">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="39">
         <f>'g20-2'!H29</f>
         <v>98.594081357239219</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="45">
         <f>'g20-2'!P29</f>
         <v>96.83744760130412</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="40">
         <f>'gvar-2'!H30</f>
         <v>98.681897050318042</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="45">
         <f>'gvar-2'!P30</f>
         <v>96.483465300419169</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="57">
+      <c r="B31" s="39">
         <f>'g20-4'!H31</f>
         <v>64.218582908557607</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="40">
         <f>'g20-4'!P31</f>
         <v>58.490535990535932</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="39">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="45">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="39">
         <f>'g20-2'!H30</f>
         <v>64.201676977582579</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="45">
         <f>'g20-2'!P30</f>
         <v>58.625671125671076</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="40">
         <f>'gvar-2'!H31</f>
         <v>64.521755039867884</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="45">
         <f>'gvar-2'!P31</f>
         <v>58.693921193921142</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="57">
+      <c r="B32" s="39">
         <f>'g20-4'!H32</f>
         <v>65.91624315871772</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="40">
         <f>'g20-4'!P32</f>
         <v>60.9112460815047</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="39">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="45">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="39">
         <f>'g20-2'!H31</f>
         <v>65.900532642689583</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="45">
         <f>'g20-2'!P31</f>
         <v>60.410854231974895</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="40">
         <f>'gvar-2'!H32</f>
         <v>66.32266419077402</v>
       </c>
-      <c r="J32" s="63">
+      <c r="J32" s="45">
         <f>'gvar-2'!P32</f>
         <v>60.599333855799365</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="65">
+      <c r="B33" s="47">
         <f>'g20-4'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="48">
         <f>'g20-4'!P33</f>
         <v>85.759999999999991</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="47">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="49">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="47">
         <f>'g20-2'!H32</f>
         <v>92.16</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="49">
         <f>'g20-2'!P32</f>
         <v>88.16</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="48">
         <f>'gvar-2'!H33</f>
         <v>92.16</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="49">
         <f>'gvar-2'!P33</f>
         <v>88.16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="70">
+      <c r="B35" s="52">
         <f>AVERAGE(B5:B33)</f>
         <v>88.628775867726389</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="52">
         <f t="shared" ref="C35:E35" si="0">AVERAGE(C5:C33)</f>
         <v>80.857700975286804</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="52">
         <f t="shared" si="0"/>
         <v>88.697024013966555</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="52">
         <f t="shared" si="0"/>
         <v>80.902465605922444</v>
       </c>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="52">
         <f>AVERAGE(G5:G33)</f>
         <v>88.697024013966555</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="52">
         <f t="shared" ref="H35:J35" si="1">AVERAGE(H5:H33)</f>
         <v>80.902465605922444</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="52">
         <f t="shared" si="1"/>
         <v>88.898946777576953</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="53">
         <f t="shared" si="1"/>
         <v>80.89958560623127</v>
       </c>
@@ -21312,28 +21501,28 @@
       <c r="B37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="61">
         <v>0.79159999999999997</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="63"/>
       <c r="G37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="61">
         <v>0.98260000000000003</v>
       </c>
-      <c r="I37" s="41"/>
+      <c r="I37" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="L13:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H37:I37"/>
   </mergeCells>
   <conditionalFormatting sqref="B35 D35">
     <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
